--- a/examples/for_equinor/for_equinor-monopile/15mw/50m/outputs/monotow_output.xlsx
+++ b/examples/for_equinor/for_equinor-monopile/15mw/50m/outputs/monotow_output.xlsx
@@ -914,8 +914,8 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>[[0.02781426 0.18281686 0.199998   0.13347932 0.1593549  0.10892979
-  0.13761373]]</t>
+          <t>[[0.02781126 0.1828135  0.19999354 0.13347579 0.15935257 0.10892738
+  0.13761421]]</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
@@ -2942,7 +2942,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>[2.9]</t>
+          <t>[2.55736479]</t>
         </is>
       </c>
       <c r="E111" t="inlineStr"/>
@@ -3519,7 +3519,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>[[0.12082712 0.07245489 0.01985423 0.01141664 0.01378189]]</t>
+          <t>[[0.12082347 0.07244802 0.01984552 0.01141306 0.0137838 ]]</t>
         </is>
       </c>
       <c r="E138" t="inlineStr"/>
@@ -3542,7 +3542,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>[10.        10.        10.         9.9903992  6.       ]</t>
+          <t>[10. 10. 10. 10.  6.]</t>
         </is>
       </c>
       <c r="E139" t="inlineStr"/>
@@ -4574,9 +4574,9 @@
       <c r="D180" t="inlineStr">
         <is>
           <t>[    0.             0.             0.         16559.12275638
- 17361.27209703 19858.38615316 24325.85696077 31281.03302773
- 41477.85456518 56075.57314941 65556.51476364 76900.86867591
- 90542.73003851     0.             0.             0.
+ 17361.27209706 19858.38615323 24325.8569609  31281.03302822
+ 41477.85456624 56075.57315139 65556.51476523 76900.86867692
+ 90542.73003872     0.             0.             0.
      0.             0.             0.        ]</t>
         </is>
       </c>
@@ -4970,9 +4970,9 @@
       <c r="D196" t="inlineStr">
         <is>
           <t>[    0.             0.             0.         16559.12275638
- 17361.27209703 19858.38615316 24325.85696077 31281.03302773
- 41477.85456518 56075.57314941 65556.51476364 76900.86867591
- 90542.73003851     0.             0.             0.
+ 17361.27209706 19858.38615323 24325.8569609  31281.03302822
+ 41477.85456624 56075.57315139 65556.51476523 76900.86867692
+ 90542.73003872     0.             0.             0.
      0.             0.             0.        ]</t>
         </is>
       </c>
@@ -5116,9 +5116,9 @@
       <c r="D202" t="inlineStr">
         <is>
           <t>[     0.              0.              0.         -16559.12275638
- -17361.27209703 -19858.38615316 -24325.85696077 -31281.03302773
- -41477.85456518 -56075.57314941 -65556.51476364 -76900.86867591
- -90542.73003851      0.              0.              0.
+ -17361.27209706 -19858.38615323 -24325.8569609  -31281.03302822
+ -41477.85456624 -56075.57315139 -65556.51476523 -76900.86867692
+ -90542.73003872      0.              0.              0.
       0.              0.              0.        ]</t>
         </is>
       </c>
@@ -5192,7 +5192,7 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>[0.10531556 0.19140743 0.16673866 0.14641711 0.13414234 0.12327176]</t>
+          <t>[0.10531238 0.19140352 0.16673466 0.14641418 0.13413997 0.12327079]</t>
         </is>
       </c>
       <c r="E205" t="inlineStr"/>
@@ -5281,7 +5281,7 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>[0.10531556 0.19140743 0.16673866 0.14641711 0.13414234 0.12327176]</t>
+          <t>[0.10531238 0.19140352 0.16673466 0.14641418 0.13413997 0.12327079]</t>
         </is>
       </c>
       <c r="E209" t="inlineStr"/>
@@ -5544,9 +5544,9 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>[0.10531556 0.10531556 0.10531556 0.19140743 0.19140743 0.19140743
- 0.16673866 0.16673866 0.16673866 0.14641711 0.14641711 0.14641711
- 0.13414234 0.13414234 0.13414234 0.12327176 0.12327176 0.12327176]</t>
+          <t>[0.10531238 0.10531238 0.10531238 0.19140352 0.19140352 0.19140352
+ 0.16673466 0.16673466 0.16673466 0.14641418 0.14641418 0.14641418
+ 0.13413997 0.13413997 0.13413997 0.12327079 0.12327079 0.12327079]</t>
         </is>
       </c>
       <c r="E220" t="inlineStr"/>
@@ -5710,7 +5710,7 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>[3548882.86070612]</t>
+          <t>[3548803.66314494]</t>
         </is>
       </c>
       <c r="E227" t="inlineStr"/>
@@ -5733,7 +5733,7 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>[8242247.46431286]</t>
+          <t>[8242073.94649401]</t>
         </is>
       </c>
       <c r="E228" t="inlineStr"/>
@@ -5756,7 +5756,7 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>[49.56312947]</t>
+          <t>[49.56323269]</t>
         </is>
       </c>
       <c r="E229" t="inlineStr"/>
@@ -5779,7 +5779,7 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>[1.10278729e+10 1.10278729e+10 8.60662962e+07 0.00000000e+00
+          <t>[1.10276625e+10 1.10276625e+10 8.60644323e+07 0.00000000e+00
  0.00000000e+00 0.00000000e+00]</t>
         </is>
       </c>
@@ -5803,7 +5803,7 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>[1735327.82655094]</t>
+          <t>[1735226.30002442]</t>
         </is>
       </c>
       <c r="E231" t="inlineStr"/>
@@ -5826,7 +5826,7 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>[4437866.28983402]</t>
+          <t>[4437767.48964604]</t>
         </is>
       </c>
       <c r="E232" t="inlineStr"/>
@@ -5915,9 +5915,9 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>[3.50290327 3.50290327 3.50290327 6.31101392 6.31101392 6.31101392
- 5.51147116 5.51147116 5.51147116 4.84975335 4.84975335 4.84975335
- 4.4487129  4.4487129  4.4487129  4.09270403 4.09270403 4.09270403]</t>
+          <t>[3.50279867 3.50279867 3.50279867 6.31088749 6.31088749 6.31088749
+ 5.51134124 5.51134124 5.51134124 4.84965777 4.84965777 4.84965777
+ 4.44863541 4.44863541 4.44863541 4.09267242 4.09267242 4.09267242]</t>
         </is>
       </c>
       <c r="E235" t="inlineStr"/>
@@ -5940,9 +5940,9 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>[1.9974023  1.9974023  1.9974023  3.61400325 3.61400325 3.61400325
- 3.15219899 3.15219899 3.15219899 2.77093132 2.77093132 2.77093132
- 2.54025945 2.54025945 2.54025945 2.335736   2.335736   2.335736  ]</t>
+          <t>[1.99734235 1.99734235 1.99734235 3.61393013 3.61393013 3.61393013
+ 3.15212405 3.15212405 3.15212405 2.77087631 2.77087631 2.77087631
+ 2.54021491 2.54021491 2.54021491 2.33571785 2.33571785 2.33571785]</t>
         </is>
       </c>
       <c r="E236" t="inlineStr"/>
@@ -5965,9 +5965,9 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>[1.9974023  1.9974023  1.9974023  3.61400325 3.61400325 3.61400325
- 3.15219899 3.15219899 3.15219899 2.77093132 2.77093132 2.77093132
- 2.54025945 2.54025945 2.54025945 2.335736   2.335736   2.335736  ]</t>
+          <t>[1.99734235 1.99734235 1.99734235 3.61393013 3.61393013 3.61393013
+ 3.15212405 3.15212405 3.15212405 2.77087631 2.77087631 2.77087631
+ 2.54021491 2.54021491 2.54021491 2.33571785 2.33571785 2.33571785]</t>
         </is>
       </c>
       <c r="E237" t="inlineStr"/>
@@ -5990,9 +5990,9 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>[42.87372832 42.87372832 42.87372832 75.92554042 75.92554042 75.92554042
- 66.63425833 66.63425833 66.63425833 58.8726919  58.8726919  58.8726919
- 54.13702203 54.13702203 54.13702203 49.91306139 49.91306139 49.91306139]</t>
+          <t>[42.87247534 42.87247534 42.87247534 75.92407878 75.92407878 75.92407878
+ 66.63274084 66.63274084 66.63274084 58.87156608 58.87156608 58.87156608
+ 54.13610476 54.13610476 54.13610476 49.91268557 49.91268557 49.91268557]</t>
         </is>
       </c>
       <c r="E238" t="inlineStr"/>
@@ -6015,9 +6015,9 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>[42.87372832 42.87372832 42.87372832 75.92554042 75.92554042 75.92554042
- 66.63425833 66.63425833 66.63425833 58.8726919  58.8726919  58.8726919
- 54.13702203 54.13702203 54.13702203 49.91306139 49.91306139 49.91306139]</t>
+          <t>[42.87247534 42.87247534 42.87247534 75.92407878 75.92407878 75.92407878
+ 66.63274084 66.63274084 66.63274084 58.87156608 58.87156608 58.87156608
+ 54.13610476 54.13610476 54.13610476 49.91268557 49.91268557 49.91268557]</t>
         </is>
       </c>
       <c r="E239" t="inlineStr"/>
@@ -6040,10 +6040,10 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>[ 85.74745664  85.74745664  85.74745664 151.85108083 151.85108083
- 151.85108083 133.26851666 133.26851666 133.26851665 117.74538381
- 117.74538381 117.74538381 108.27404407 108.27404407 108.27404407
-  99.82612278  99.82612278  99.82612278]</t>
+          <t>[ 85.74495068  85.74495068  85.74495068 151.84815756 151.84815756
+ 151.84815756 133.26548167 133.26548167 133.26548167 117.74313216
+ 117.74313216 117.74313216 108.27220953 108.27220953 108.27220953
+  99.82537113  99.82537113  99.82537113]</t>
         </is>
       </c>
       <c r="E240" t="inlineStr"/>
@@ -6238,8 +6238,8 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>[3.21719664 3.21719664 3.21719664 1.54432671 1.54432671 1.54432671
- 0.52467997 0.52451177 0.52434357 0.3944174  0.33808296 0.28174852]</t>
+          <t>[3.2170233  3.2170233  3.2170233  1.54406723 1.54406723 1.54406723
+ 0.52455824 0.52455824 0.52455824 0.39473016 0.33826392 0.28179768]</t>
         </is>
       </c>
       <c r="E247" t="inlineStr"/>
@@ -6262,8 +6262,8 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>[1.83372967 1.83372967 1.83372967 0.87816592 0.87816592 0.87816592
- 0.29794527 0.29784982 0.29775437 0.22395315 0.19198513 0.16001717]</t>
+          <t>[1.83363041 1.83363041 1.83363041 0.87801806 0.87801806 0.87801806
+ 0.29787603 0.29787603 0.29787603 0.22413061 0.19208781 0.16004505]</t>
         </is>
       </c>
       <c r="E248" t="inlineStr"/>
@@ -6286,8 +6286,8 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>[1.83372967 1.83372967 1.83372967 0.87816592 0.87816592 0.87816592
- 0.29794527 0.29784982 0.29775437 0.22395315 0.19198513 0.16001717]</t>
+          <t>[1.83363041 1.83363041 1.83363041 0.87801806 0.87801806 0.87801806
+ 0.29787603 0.29787603 0.29787603 0.22413061 0.19208781 0.16004505]</t>
         </is>
       </c>
       <c r="E249" t="inlineStr"/>
@@ -6310,8 +6310,8 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>[39.44518699 39.44518699 39.44518699 19.12671198 19.12671198 19.12671198
-  6.53592727  6.52964345  6.52336366  4.27583771  2.69291811  1.55861447]</t>
+          <t>[39.44310314 39.44310314 39.44310314 19.1235281  19.1235281  19.1235281
+  6.53651388  6.53651388  6.53651388  4.28658492  2.69760159  1.55963681]</t>
         </is>
       </c>
       <c r="E250" t="inlineStr"/>
@@ -6334,8 +6334,8 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>[39.44518699 39.44518699 39.44518699 19.12671198 19.12671198 19.12671198
-  6.53592727  6.52964345  6.52336366  4.27583771  2.69291811  1.55861447]</t>
+          <t>[39.44310314 39.44310314 39.44310314 19.1235281  19.1235281  19.1235281
+  6.53651388  6.53651388  6.53651388  4.28658492  2.69760159  1.55963681]</t>
         </is>
       </c>
       <c r="E251" t="inlineStr"/>
@@ -6358,8 +6358,8 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>[78.89037398 78.89037398 78.89037397 38.25342396 38.25342396 38.25342396
- 13.07185454 13.0592869  13.04672732  8.55167542  5.38583622  3.11722894]</t>
+          <t>[78.88620628 78.88620628 78.88620628 38.24705619 38.24705619 38.24705619
+ 13.07302775 13.07302775 13.07302775  8.57316984  5.39520317  3.11927363]</t>
         </is>
       </c>
       <c r="E252" t="inlineStr"/>
@@ -6454,7 +6454,7 @@
       <c r="D256" t="inlineStr">
         <is>
           <t>[10.         10.         10.         10.         10.         10.
- 10.          9.99679973  9.99359947  9.9903992   8.66026614  7.33013307
+ 10.         10.         10.         10.          8.66666667  7.33333333
   6.        ]</t>
         </is>
       </c>
@@ -6478,8 +6478,8 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>[0.096641   0.096641   0.096641   0.04615456 0.04615456 0.04615456
- 0.01563544 0.01563544 0.01563544 0.01259927 0.01259927 0.01259927]</t>
+          <t>[0.09663575 0.09663575 0.09663575 0.04614677 0.04614677 0.04614677
+ 0.01562929 0.01562929 0.01562929 0.01259843 0.01259843 0.01259843]</t>
         </is>
       </c>
       <c r="E257" t="inlineStr"/>
@@ -6586,7 +6586,7 @@
         <is>
           <t>[[ 2.91197623e+06]
  [-3.35507584e+03]
- [-2.37339169e+07]]</t>
+ [-2.37329713e+07]]</t>
         </is>
       </c>
       <c r="E261" t="inlineStr"/>
@@ -6609,8 +6609,8 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>[[-1.80597536e+05]
- [ 4.25335139e+08]
+          <t>[[-1.80589578e+05]
+ [ 4.25334705e+08]
  [ 6.48957511e+06]]</t>
         </is>
       </c>
@@ -6634,8 +6634,7 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>[1249999.99999934 1249999.99999934 2499999.99999868       0.
-       0.               0.        ]</t>
+          <t>[1250000. 1250000. 2500000.       0.       0.       0.]</t>
         </is>
       </c>
       <c r="E263" t="inlineStr"/>
@@ -6727,7 +6726,7 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>[2718189.82655094]</t>
+          <t>[2718088.30002442]</t>
         </is>
       </c>
       <c r="E267" t="inlineStr"/>
@@ -6750,7 +6749,7 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>[-2.33387802e+00 -3.01320829e-02  8.94653817e+01]</t>
+          <t>[-2.33396520e+00 -3.01332084e-02  8.94684790e+01]</t>
         </is>
       </c>
       <c r="E268" t="inlineStr"/>
@@ -6773,7 +6772,7 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>[3.21881011e+10 3.20436769e+10 2.95209074e+08 2.02613158e+02
+          <t>[3.21885144e+10 3.20440902e+10 2.95211177e+08 2.02613158e+02
  1.08611945e+07 1.44041114e+05]</t>
         </is>
       </c>
@@ -6883,15 +6882,15 @@
  [     0.        ]
  [     0.        ]
  [-16559.12275638]
- [-17361.27209703]
- [-19858.38615316]
- [-24325.85696077]
- [-31281.03302773]
- [-41477.85456518]
- [-56075.57314941]
- [-65556.51476364]
- [-76900.86867591]
- [-90542.73003851]
+ [-17361.27209706]
+ [-19858.38615323]
+ [-24325.8569609 ]
+ [-31281.03302822]
+ [-41477.85456624]
+ [-56075.57315139]
+ [-65556.51476523]
+ [-76900.86867692]
+ [-90542.73003872]
  [     0.        ]
  [     0.        ]
  [     0.        ]
@@ -6990,19 +6989,19 @@
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>[[ -927.9981594 ]
- [-1070.12742488]
- [-1170.96499655]
- [-1251.15492823]
- [-1344.74637367]
- [-1422.65663272]
- [-1490.05546077]
- [-1526.163267  ]
- [-1559.93750745]
- [-1591.70482277]
- [-1386.26296244]
- [-1188.54660831]
- [ -992.7821857 ]]</t>
+          <t>[[ -927.99815941]
+ [-1070.12742489]
+ [-1170.96499657]
+ [-1251.15492825]
+ [-1344.74637369]
+ [-1422.65663273]
+ [-1490.05546078]
+ [-1526.70959183]
+ [-1561.06149957]
+ [-1593.43543744]
+ [-1387.34045863]
+ [-1189.05983894]
+ [ -992.78218559]]</t>
         </is>
       </c>
       <c r="E275" t="inlineStr"/>
@@ -7025,24 +7024,24 @@
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>[[-58896511.77744148]
- [-56217163.16452366]
- [-53455846.89568235]
- [-50125739.80997048]
- [-46784745.16074432]
- [-43420767.37825669]
- [-40426804.76204254]
- [-37376240.54664662]
- [-34243854.35352661]
- [-32806646.04494179]
- [-31335076.02279167]
- [-29822278.74029963]
- [-28538619.04872009]
- [-27404354.85380957]
- [-26270090.65889903]
- [-25748343.4173696 ]
- [-25226596.17584005]
- [-24704848.93431005]]</t>
+          <t>[[-58894865.69352221]
+ [-56215597.14009327]
+ [-53454360.93074066]
+ [-50124318.19906779]
+ [-46783387.90388036]
+ [-43419474.47543131]
+ [-40425578.25624146]
+ [-37375080.4378695 ]
+ [-34242760.64177395]
+ [-32805576.84901398]
+ [-31334031.34268811]
+ [-29821258.57602042]
+ [-28537618.54817432]
+ [-27403374.01699761]
+ [-26269129.48582102]
+ [-25747386.26641833]
+ [-25225643.04701698]
+ [-24703899.82761519]]</t>
         </is>
       </c>
       <c r="E276" t="inlineStr"/>
@@ -7065,24 +7064,24 @@
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>[[ -6105692.24134605]
- [-14357927.18070691]
- [-13603501.43865598]
- [  2913588.80790205]
- [  2914015.83021369]
- [  2914439.32128056]
- [  2914545.025784  ]
- [  2914984.36442472]
- [  2915449.06653648]
- [  2913708.56422608]
- [  2913846.26729926]
- [  2913995.26657311]
- [  2913851.66366023]
- [  2913646.60799812]
- [  2913721.15448857]
- [  2912805.13355869]
- [  2912823.07721472]
- [  2912840.80329619]]</t>
+          <t>[[ -6105578.75996713]
+ [-14357869.80999915]
+ [-13603634.44763141]
+ [  2913588.80870609]
+ [  2914015.83114831]
+ [  2914439.3225658 ]
+ [  2914545.01991281]
+ [  2914984.3599374 ]
+ [  2915449.06429176]
+ [  2913708.5704746 ]
+ [  2913846.27465086]
+ [  2913995.2752948 ]
+ [  2913851.67439101]
+ [  2913646.61297188]
+ [  2913721.1594591 ]
+ [  2912805.14370108]
+ [  2912823.08736556]
+ [  2912840.81344237]]</t>
         </is>
       </c>
       <c r="E277" t="inlineStr"/>
@@ -7105,24 +7104,24 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>[[   97.56346672]
- [ -138.19791652]
- [-1541.51564527]
- [-3355.14856935]
- [-3355.13682798]
- [-3355.10868488]
- [-3355.0644332 ]
- [-3355.00076279]
- [-3354.91630765]
- [-3354.96879995]
- [-3354.93734834]
- [-3354.90142132]
- [-3354.89053931]
- [-3354.88817354]
- [-3354.85606245]
- [-3354.96315203]
- [-3354.95441333]
- [-3354.94543196]]</t>
+          <t>[[   97.6095452 ]
+ [ -138.07717053]
+ [-1541.38477072]
+ [-3355.14858107]
+ [-3355.13684313]
+ [-3355.10870355]
+ [-3355.06445306]
+ [-3355.00078646]
+ [-3354.91633536]
+ [-3354.96881349]
+ [-3354.93736304]
+ [-3354.90143725]
+ [-3354.89055396]
+ [-3354.88818721]
+ [-3354.85607694]
+ [-3354.96315789]
+ [-3354.95441939]
+ [-3354.94543823]]</t>
         </is>
       </c>
       <c r="E278" t="inlineStr"/>
@@ -7145,24 +7144,24 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>[[   4069.92608461]
- [  11610.22190773]
- [   3588.62498303]
- [ -16285.76325736]
- [ -38665.1467473 ]
- [ -61038.42165879]
- [ -83403.39000567]
- [-105757.2651634 ]
- [-128098.96104009]
- [-139265.46374371]
- [-150428.41372181]
- [-161587.84086667]
- [-172743.81995465]
- [-183895.92659801]
- [-195044.11365979]
- [-200616.98584798]
- [-206188.80416703]
- [-211759.57973853]]</t>
+          <t>[[   4070.25725258]
+ [  11612.17229336]
+ [   3592.74128265]
+ [ -16281.13346434]
+ [ -38660.51987551]
+ [ -61033.79819174]
+ [ -83398.77040269]
+ [-105752.64986706]
+ [-128094.35041817]
+ [-139260.85553165]
+ [-150423.8080283 ]
+ [-161583.23779295]
+ [-172739.21960086]
+ [-183891.32909573]
+ [-195039.51914443]
+ [-200612.39286306]
+ [-206184.21276828]
+ [-211754.98998171]]</t>
         </is>
       </c>
       <c r="E279" t="inlineStr"/>
@@ -7185,24 +7184,24 @@
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>[[6.44498000e+07]
- [2.84041228e+08]
- [5.31708692e+08]
- [5.76399901e+08]
- [5.56578531e+08]
- [5.36708148e+08]
- [5.16797288e+08]
- [4.96851064e+08]
- [4.76883129e+08]
- [4.66900581e+08]
- [4.56915336e+08]
- [4.46929080e+08]
- [4.36943077e+08]
- [4.26956302e+08]
- [4.16968660e+08]
- [4.11976230e+08]
- [4.06983629e+08]
- [4.01990994e+08]]</t>
+          <t>[[6.44478632e+07]
+ [2.84037625e+08]
+ [5.31707512e+08]
+ [5.76400005e+08]
+ [5.56578639e+08]
+ [5.36708260e+08]
+ [5.16797405e+08]
+ [4.96851186e+08]
+ [4.76883257e+08]
+ [4.66900712e+08]
+ [4.56915470e+08]
+ [4.46929217e+08]
+ [4.36943219e+08]
+ [4.26956448e+08]
+ [4.16968810e+08]
+ [4.11976382e+08]
+ [4.06983784e+08]
+ [4.01991152e+08]]</t>
         </is>
       </c>
       <c r="E280" t="inlineStr"/>
@@ -7225,24 +7224,24 @@
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>[[1182643.75812387]
- [2527628.17586713]
- [4219597.77045017]
- [6490268.35326679]
- [6490225.16238762]
- [6490181.83087638]
- [6490219.89701974]
- [6490175.43335764]
- [6490130.12972567]
- [6490152.99952917]
- [6490128.74354894]
- [6490103.9078287 ]
- [6490123.74861871]
- [6490100.13130713]
- [6490079.26277981]
- [6490100.43686549]
- [6490090.00258456]
- [6490079.56833731]]</t>
+          <t>[[1182633.61390832]
+ [2527611.25226837]
+ [4219581.91180333]
+ [6490268.34785137]
+ [6490225.15694367]
+ [6490181.8254011 ]
+ [6490219.89300864]
+ [6490175.42928526]
+ [6490130.12557227]
+ [6490152.99254337]
+ [6490128.73649536]
+ [6490103.90069595]
+ [6490123.73937306]
+ [6490100.12201343]
+ [6490079.25348578]
+ [6490100.42167482]
+ [6490089.9873942 ]
+ [6490079.55314714]]</t>
         </is>
       </c>
       <c r="E281" t="inlineStr"/>
@@ -7298,7 +7297,7 @@
  10.         10.         10.         10.         10.         10.
  10.         10.         10.         10.         10.         10.
  10.         10.         10.         10.         10.         10.
- 10.          9.99679973  9.99359947  9.9903992   8.66026614  7.33013307
+ 10.         10.         10.         10.          8.66666667  7.33333333
   6.        ]</t>
         </is>
       </c>
@@ -7322,11 +7321,11 @@
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>[0.10531556 0.10531556 0.10531556 0.19140743 0.19140743 0.19140743
- 0.16673866 0.16673866 0.16673866 0.14641711 0.14641711 0.14641711
- 0.13414234 0.13414234 0.13414234 0.12327176 0.12327176 0.12327176
- 0.096641   0.096641   0.096641   0.04615456 0.04615456 0.04615456
- 0.01563544 0.01563544 0.01563544 0.01259927 0.01259927 0.01259927]</t>
+          <t>[0.10531238 0.10531238 0.10531238 0.19140352 0.19140352 0.19140352
+ 0.16673466 0.16673466 0.16673466 0.14641418 0.14641418 0.14641418
+ 0.13413997 0.13413997 0.13413997 0.12327079 0.12327079 0.12327079
+ 0.09663575 0.09663575 0.09663575 0.04614677 0.04614677 0.04614677
+ 0.01562929 0.01562929 0.01562929 0.01259843 0.01259843 0.01259843]</t>
         </is>
       </c>
       <c r="E284" t="inlineStr"/>
@@ -7474,11 +7473,11 @@
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>[3.50290327 3.50290327 3.50290327 6.31101392 6.31101392 6.31101392
- 5.51147116 5.51147116 5.51147116 4.84975335 4.84975335 4.84975335
- 4.4487129  4.4487129  4.4487129  4.09270403 4.09270403 4.09270403
- 3.21719664 3.21719664 3.21719664 1.54432671 1.54432671 1.54432671
- 0.52467997 0.52451177 0.52434357 0.3944174  0.33808296 0.28174852]</t>
+          <t>[3.50279867 3.50279867 3.50279867 6.31088749 6.31088749 6.31088749
+ 5.51134124 5.51134124 5.51134124 4.84965777 4.84965777 4.84965777
+ 4.44863541 4.44863541 4.44863541 4.09267242 4.09267242 4.09267242
+ 3.2170233  3.2170233  3.2170233  1.54406723 1.54406723 1.54406723
+ 0.52455824 0.52455824 0.52455824 0.39473016 0.33826392 0.28179768]</t>
         </is>
       </c>
       <c r="E290" t="inlineStr"/>
@@ -7501,11 +7500,11 @@
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>[1.9974023  1.9974023  1.9974023  3.61400325 3.61400325 3.61400325
- 3.15219899 3.15219899 3.15219899 2.77093132 2.77093132 2.77093132
- 2.54025945 2.54025945 2.54025945 2.335736   2.335736   2.335736
- 1.83372967 1.83372967 1.83372967 0.87816592 0.87816592 0.87816592
- 0.29794527 0.29784982 0.29775437 0.22395315 0.19198513 0.16001717]</t>
+          <t>[1.99734235 1.99734235 1.99734235 3.61393013 3.61393013 3.61393013
+ 3.15212405 3.15212405 3.15212405 2.77087631 2.77087631 2.77087631
+ 2.54021491 2.54021491 2.54021491 2.33571785 2.33571785 2.33571785
+ 1.83363041 1.83363041 1.83363041 0.87801806 0.87801806 0.87801806
+ 0.29787603 0.29787603 0.29787603 0.22413061 0.19208781 0.16004505]</t>
         </is>
       </c>
       <c r="E291" t="inlineStr"/>
@@ -7528,11 +7527,11 @@
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>[1.9974023  1.9974023  1.9974023  3.61400325 3.61400325 3.61400325
- 3.15219899 3.15219899 3.15219899 2.77093132 2.77093132 2.77093132
- 2.54025945 2.54025945 2.54025945 2.335736   2.335736   2.335736
- 1.83372967 1.83372967 1.83372967 0.87816592 0.87816592 0.87816592
- 0.29794527 0.29784982 0.29775437 0.22395315 0.19198513 0.16001717]</t>
+          <t>[1.99734235 1.99734235 1.99734235 3.61393013 3.61393013 3.61393013
+ 3.15212405 3.15212405 3.15212405 2.77087631 2.77087631 2.77087631
+ 2.54021491 2.54021491 2.54021491 2.33571785 2.33571785 2.33571785
+ 1.83363041 1.83363041 1.83363041 0.87801806 0.87801806 0.87801806
+ 0.29787603 0.29787603 0.29787603 0.22413061 0.19208781 0.16004505]</t>
         </is>
       </c>
       <c r="E292" t="inlineStr"/>
@@ -7555,11 +7554,11 @@
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>[42.87372832 42.87372832 42.87372832 75.92554042 75.92554042 75.92554042
- 66.63425833 66.63425833 66.63425833 58.8726919  58.8726919  58.8726919
- 54.13702203 54.13702203 54.13702203 49.91306139 49.91306139 49.91306139
- 39.44518699 39.44518699 39.44518699 19.12671198 19.12671198 19.12671198
-  6.53592727  6.52964345  6.52336366  4.27583771  2.69291811  1.55861447]</t>
+          <t>[42.87247534 42.87247534 42.87247534 75.92407878 75.92407878 75.92407878
+ 66.63274084 66.63274084 66.63274084 58.87156608 58.87156608 58.87156608
+ 54.13610476 54.13610476 54.13610476 49.91268557 49.91268557 49.91268557
+ 39.44310314 39.44310314 39.44310314 19.1235281  19.1235281  19.1235281
+  6.53651388  6.53651388  6.53651388  4.28658492  2.69760159  1.55963681]</t>
         </is>
       </c>
       <c r="E293" t="inlineStr"/>
@@ -7582,11 +7581,11 @@
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>[42.87372832 42.87372832 42.87372832 75.92554042 75.92554042 75.92554042
- 66.63425833 66.63425833 66.63425833 58.8726919  58.8726919  58.8726919
- 54.13702203 54.13702203 54.13702203 49.91306139 49.91306139 49.91306139
- 39.44518699 39.44518699 39.44518699 19.12671198 19.12671198 19.12671198
-  6.53592727  6.52964345  6.52336366  4.27583771  2.69291811  1.55861447]</t>
+          <t>[42.87247534 42.87247534 42.87247534 75.92407878 75.92407878 75.92407878
+ 66.63274084 66.63274084 66.63274084 58.87156608 58.87156608 58.87156608
+ 54.13610476 54.13610476 54.13610476 49.91268557 49.91268557 49.91268557
+ 39.44310314 39.44310314 39.44310314 19.1235281  19.1235281  19.1235281
+  6.53651388  6.53651388  6.53651388  4.28658492  2.69760159  1.55963681]</t>
         </is>
       </c>
       <c r="E294" t="inlineStr"/>
@@ -7609,12 +7608,12 @@
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>[ 85.74745664  85.74745664  85.74745664 151.85108083 151.85108083
- 151.85108083 133.26851666 133.26851666 133.26851665 117.74538381
- 117.74538381 117.74538381 108.27404407 108.27404407 108.27404407
-  99.82612278  99.82612278  99.82612278  78.89037398  78.89037398
-  78.89037397  38.25342396  38.25342396  38.25342396  13.07185454
-  13.0592869   13.04672732   8.55167542   5.38583622   3.11722894]</t>
+          <t>[ 85.74495068  85.74495068  85.74495068 151.84815756 151.84815756
+ 151.84815756 133.26548167 133.26548167 133.26548167 117.74313216
+ 117.74313216 117.74313216 108.27220953 108.27220953 108.27220953
+  99.82537113  99.82537113  99.82537113  78.88620628  78.88620628
+  78.88620628  38.24705619  38.24705619  38.24705619  13.07302775
+  13.07302775  13.07302775   8.57316984   5.39520317   3.11927363]</t>
         </is>
       </c>
       <c r="E295" t="inlineStr"/>
@@ -7637,36 +7636,36 @@
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>[[-5.88965118e+07]
- [-5.62171632e+07]
- [-5.34558469e+07]
- [-5.01257398e+07]
- [-4.67847452e+07]
- [-4.34207674e+07]
- [-4.04268048e+07]
- [-3.73762405e+07]
- [-3.42438544e+07]
- [-3.28066460e+07]
- [-3.13350760e+07]
- [-2.98222787e+07]
- [-2.85386190e+07]
- [-2.74043549e+07]
- [-2.62700907e+07]
- [-2.57483434e+07]
- [-2.52265962e+07]
- [-2.47048489e+07]
- [-2.07481419e+07]
- [-1.77656735e+07]
- [-1.47817533e+07]
- [-1.27240483e+07]
- [-1.06648599e+07]
- [-8.60420747e+06]
- [-8.17404499e+06]
- [-7.74348550e+06]
- [-7.31270122e+06]
- [-7.00629417e+06]
- [-6.74232949e+06]
- [ 1.89174898e-09]]</t>
+          <t>[[-5.88948657e+07]
+ [-5.62155971e+07]
+ [-5.34543609e+07]
+ [-5.01243182e+07]
+ [-4.67833879e+07]
+ [-4.34194745e+07]
+ [-4.04255783e+07]
+ [-3.73750804e+07]
+ [-3.42427606e+07]
+ [-3.28055768e+07]
+ [-3.13340313e+07]
+ [-2.98212586e+07]
+ [-2.85376185e+07]
+ [-2.74033740e+07]
+ [-2.62691295e+07]
+ [-2.57473863e+07]
+ [-2.52256430e+07]
+ [-2.47038998e+07]
+ [-2.07473528e+07]
+ [-1.77650444e+07]
+ [-1.47812842e+07]
+ [-1.27239213e+07]
+ [-1.06650751e+07]
+ [-8.60476487e+06]
+ [-8.17469873e+06]
+ [-7.74409966e+06]
+ [-7.31313692e+06]
+ [-7.00648521e+06]
+ [-6.74237341e+06]
+ [ 2.19588401e-08]]</t>
         </is>
       </c>
       <c r="E296" t="inlineStr"/>
@@ -7689,36 +7688,36 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>[[-6.10569224e+06]
- [-1.43579272e+07]
- [-1.36035014e+07]
+          <t>[[-6.10557876e+06]
+ [-1.43578698e+07]
+ [-1.36036344e+07]
  [ 2.91358881e+06]
  [ 2.91401583e+06]
  [ 2.91443932e+06]
- [ 2.91454503e+06]
+ [ 2.91454502e+06]
  [ 2.91498436e+06]
- [ 2.91544907e+06]
- [ 2.91370856e+06]
+ [ 2.91544906e+06]
+ [ 2.91370857e+06]
  [ 2.91384627e+06]
- [ 2.91399527e+06]
- [ 2.91385166e+06]
+ [ 2.91399528e+06]
+ [ 2.91385167e+06]
  [ 2.91364661e+06]
- [ 2.91372115e+06]
- [ 2.91280513e+06]
- [ 2.91282308e+06]
- [ 2.91284080e+06]
- [ 2.91740550e+06]
- [ 2.91825478e+06]
- [ 2.91901044e+06]
- [ 2.91773224e+06]
- [ 2.91885864e+06]
- [ 2.91974676e+06]
- [ 2.91380089e+06]
- [ 2.91398635e+06]
- [ 2.91411842e+06]
- [ 2.91357184e+06]
- [ 2.91338505e+06]
- [ 1.15260341e+03]]</t>
+ [ 2.91372116e+06]
+ [ 2.91280514e+06]
+ [ 2.91282309e+06]
+ [ 2.91284081e+06]
+ [ 2.91740533e+06]
+ [ 2.91825460e+06]
+ [ 2.91901027e+06]
+ [ 2.91773156e+06]
+ [ 2.91885795e+06]
+ [ 2.91974607e+06]
+ [ 2.91380061e+06]
+ [ 2.91398656e+06]
+ [ 2.91411913e+06]
+ [ 2.91357282e+06]
+ [ 2.91338553e+06]
+ [ 1.15259839e+03]]</t>
         </is>
       </c>
       <c r="E297" t="inlineStr"/>
@@ -7741,36 +7740,36 @@
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>[[   97.56346672]
- [ -138.19791652]
- [-1541.51564527]
- [-3355.14856935]
- [-3355.13682798]
- [-3355.10868488]
- [-3355.0644332 ]
- [-3355.00076279]
- [-3354.91630765]
- [-3354.96879995]
- [-3354.93734834]
- [-3354.90142132]
- [-3354.89053931]
- [-3354.88817354]
- [-3354.85606245]
- [-3354.96315203]
- [-3354.95441333]
- [-3354.94543196]
- [-3354.05773017]
- [-3353.47980813]
- [-3352.81166313]
- [-3352.47462036]
- [-3350.66392756]
- [-3348.58612679]
- [-3353.0675483 ]
- [-3352.14917283]
- [-3351.17265532]
- [-3351.41405087]
- [-3350.68969622]
- [    4.3347964 ]]</t>
+          <t>[[   97.6095452 ]
+ [ -138.07717053]
+ [-1541.38477072]
+ [-3355.14858107]
+ [-3355.13684313]
+ [-3355.10870355]
+ [-3355.06445306]
+ [-3355.00078646]
+ [-3354.91633536]
+ [-3354.96881349]
+ [-3354.93736304]
+ [-3354.90143725]
+ [-3354.89055396]
+ [-3354.88818721]
+ [-3354.85607694]
+ [-3354.96315789]
+ [-3354.95441939]
+ [-3354.94543823]
+ [-3354.05780864]
+ [-3353.47989759]
+ [-3352.81176357]
+ [-3352.47491076]
+ [-3350.6642384 ]
+ [-3348.5864579 ]
+ [-3353.06785386]
+ [-3352.14929626]
+ [-3351.17293521]
+ [-3351.41453446]
+ [-3350.69267432]
+ [    4.32999982]]</t>
         </is>
       </c>
       <c r="E298" t="inlineStr"/>
@@ -7793,36 +7792,36 @@
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>[[ 4.06992608e+03]
- [ 1.16102219e+04]
- [ 3.58862498e+03]
- [-1.62857633e+04]
- [-3.86651467e+04]
- [-6.10384217e+04]
- [-8.34033900e+04]
- [-1.05757265e+05]
- [-1.28098961e+05]
- [-1.39265464e+05]
- [-1.50428414e+05]
- [-1.61587841e+05]
- [-1.72743820e+05]
- [-1.83895927e+05]
- [-1.95044114e+05]
- [-2.00616986e+05]
- [-2.06188804e+05]
- [-2.11759580e+05]
- [-2.52064221e+05]
- [-2.92296418e+05]
- [-3.32471233e+05]
- [-3.89685571e+05]
- [-4.46602855e+05]
- [-5.03302052e+05]
- [-5.37182851e+05]
- [-5.70747795e+05]
- [-6.04010723e+05]
- [-6.34723492e+05]
- [-6.64879366e+05]
- [-1.09493921e-04]]</t>
+          <t>[[ 4.07025725e+03]
+ [ 1.16121723e+04]
+ [ 3.59274128e+03]
+ [-1.62811335e+04]
+ [-3.86605199e+04]
+ [-6.10337982e+04]
+ [-8.33987704e+04]
+ [-1.05752650e+05]
+ [-1.28094350e+05]
+ [-1.39260856e+05]
+ [-1.50423808e+05]
+ [-1.61583238e+05]
+ [-1.72739220e+05]
+ [-1.83891329e+05]
+ [-1.95039519e+05]
+ [-2.00612393e+05]
+ [-2.06184213e+05]
+ [-2.11754990e+05]
+ [-2.52059644e+05]
+ [-2.92291852e+05]
+ [-3.32466675e+05]
+ [-3.89680998e+05]
+ [-4.46598201e+05]
+ [-5.03297241e+05]
+ [-5.37177927e+05]
+ [-5.70742930e+05]
+ [-6.04006444e+05]
+ [-6.34720678e+05]
+ [-6.64879271e+05]
+ [-1.09326310e-04]]</t>
         </is>
       </c>
       <c r="E299" t="inlineStr"/>
@@ -7845,36 +7844,36 @@
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>[[ 6.44498000e+07]
- [ 2.84041228e+08]
- [ 5.31708692e+08]
- [ 5.76399901e+08]
- [ 5.56578531e+08]
- [ 5.36708148e+08]
- [ 5.16797288e+08]
- [ 4.96851064e+08]
- [ 4.76883129e+08]
- [ 4.66900581e+08]
- [ 4.56915336e+08]
- [ 4.46929080e+08]
- [ 4.36943077e+08]
- [ 4.26956302e+08]
- [ 4.16968660e+08]
- [ 4.11976230e+08]
- [ 4.06983629e+08]
- [ 4.01990994e+08]
- [ 3.65794972e+08]
- [ 3.29588952e+08]
- [ 2.93426360e+08]
- [ 2.41785290e+08]
- [ 1.90102113e+08]
- [ 1.38498648e+08]
- [ 1.07612802e+08]
- [ 7.66934826e+07]
- [ 4.57670358e+07]
- [ 1.69106498e+07]
- [-1.19313746e+07]
- [ 2.91137928e-02]]</t>
+          <t>[[ 6.44478632e+07]
+ [ 2.84037625e+08]
+ [ 5.31707512e+08]
+ [ 5.76400005e+08]
+ [ 5.56578639e+08]
+ [ 5.36708260e+08]
+ [ 5.16797405e+08]
+ [ 4.96851186e+08]
+ [ 4.76883257e+08]
+ [ 4.66900712e+08]
+ [ 4.56915470e+08]
+ [ 4.46929217e+08]
+ [ 4.36943219e+08]
+ [ 4.26956448e+08]
+ [ 4.16968810e+08]
+ [ 4.11976382e+08]
+ [ 4.06983784e+08]
+ [ 4.01991152e+08]
+ [ 3.65795148e+08]
+ [ 3.29589140e+08]
+ [ 2.93426554e+08]
+ [ 2.41785463e+08]
+ [ 1.90102203e+08]
+ [ 1.38498602e+08]
+ [ 1.07612652e+08]
+ [ 7.66932583e+07]
+ [ 4.57668125e+07]
+ [ 1.69105131e+07]
+ [-1.19313748e+07]
+ [ 2.91010751e-02]]</t>
         </is>
       </c>
       <c r="E300" t="inlineStr"/>
@@ -7897,36 +7896,36 @@
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>[[1.18264376e+06]
- [2.52762818e+06]
- [4.21959777e+06]
- [6.49026835e+06]
- [6.49022516e+06]
- [6.49018183e+06]
- [6.49021990e+06]
- [6.49017543e+06]
- [6.49013013e+06]
- [6.49015300e+06]
- [6.49012874e+06]
- [6.49010391e+06]
- [6.49012375e+06]
- [6.49010013e+06]
- [6.49007926e+06]
- [6.49010044e+06]
- [6.49009000e+06]
- [6.49007957e+06]
- [6.49017864e+06]
- [6.49010292e+06]
- [6.49002705e+06]
- [6.49035851e+06]
- [6.49024944e+06]
- [6.49014030e+06]
- [6.49091741e+06]
- [6.49085070e+06]
- [6.49078388e+06]
- [6.49109274e+06]
- [6.49127148e+06]
- [2.77528204e-09]]</t>
+          <t>[[1182633.61390832]
+ [2527611.25226837]
+ [4219581.91180333]
+ [6490268.34785137]
+ [6490225.15694367]
+ [6490181.8254011 ]
+ [6490219.89300864]
+ [6490175.42928526]
+ [6490130.12557227]
+ [6490152.99254337]
+ [6490128.73649536]
+ [6490103.90069595]
+ [6490123.73937306]
+ [6490100.12201343]
+ [6490079.25348578]
+ [6490100.42167482]
+ [6490089.9873942 ]
+ [6490079.55314714]
+ [6490178.64691903]
+ [6490102.93139406]
+ [6490027.05495158]
+ [6490358.61454287]
+ [6490249.54957278]
+ [6490140.4096327 ]
+ [6490917.80772912]
+ [6490850.68651486]
+ [6490783.48351621]
+ [6491091.6294719 ]
+ [6491270.62281838]
+ [      0.        ]]</t>
         </is>
       </c>
       <c r="E301" t="inlineStr"/>
@@ -8623,7 +8622,7 @@
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>[4437866.28983402]</t>
+          <t>[4437767.48964604]</t>
         </is>
       </c>
       <c r="E330" t="inlineStr"/>
@@ -8646,7 +8645,7 @@
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>[1735327.82655094]</t>
+          <t>[1735226.30002442]</t>
         </is>
       </c>
       <c r="E331" t="inlineStr"/>
@@ -8669,7 +8668,7 @@
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>[5382866.28983402]</t>
+          <t>[5382767.48964604]</t>
         </is>
       </c>
       <c r="E332" t="inlineStr"/>
@@ -8692,7 +8691,7 @@
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>[358.85775266]</t>
+          <t>[358.85116598]</t>
         </is>
       </c>
       <c r="E333" t="inlineStr"/>
@@ -8715,7 +8714,7 @@
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>[1735327.82655094]</t>
+          <t>[1735226.30002442]</t>
         </is>
       </c>
       <c r="E334" t="inlineStr"/>
@@ -8784,7 +8783,7 @@
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>[4437866.28983402]</t>
+          <t>[4437767.48964604]</t>
         </is>
       </c>
       <c r="E337" t="inlineStr"/>
@@ -8807,7 +8806,7 @@
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>[4437866.28983402]</t>
+          <t>[4437767.48964604]</t>
         </is>
       </c>
       <c r="E338" t="inlineStr"/>
@@ -8830,9 +8829,9 @@
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>[ 927.9981594  1070.12742488 1170.96499655 1251.15492823 1344.74637367
- 1422.65663272 1490.05546077 1526.163267   1559.93750745 1591.70482277
- 1386.26296244 1188.54660831  992.7821857 ]</t>
+          <t>[ 927.99815941 1070.12742489 1170.96499657 1251.15492825 1344.74637369
+ 1422.65663273 1490.05546078 1526.70959183 1561.06149957 1593.43543744
+ 1387.34045863 1189.05983894  992.78218559]</t>
         </is>
       </c>
       <c r="E339" t="inlineStr"/>
@@ -9048,7 +9047,7 @@
       <c r="D348" t="inlineStr">
         <is>
           <t>[10.         10.         10.         10.         10.         10.
- 10.          9.99679973  9.99359947  9.9903992   8.66026614  7.33013307
+ 10.         10.         10.         10.          8.66666667  7.33333333
   6.        ]</t>
         </is>
       </c>
@@ -9143,9 +9142,9 @@
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>[ 927.9981594  1070.12742488 1170.96499655 1251.15492823 1344.74637367
- 1422.65663272 1490.05546077 1526.163267   1559.93750745 1591.70482277
- 1386.26296244 1188.54660831  992.7821857 ]</t>
+          <t>[ 927.99815941 1070.12742489 1170.96499657 1251.15492825 1344.74637369
+ 1422.65663273 1490.05546078 1526.70959183 1561.06149957 1593.43543744
+ 1387.34045863 1189.05983894  992.78218559]</t>
         </is>
       </c>
       <c r="E352" t="inlineStr"/>
@@ -9285,10 +9284,10 @@
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>[ -927.9981594  -1070.12742488 -1170.96499655 -1251.15492823
- -1344.74637367 -1422.65663272 -1490.05546077 -1526.163267
- -1559.93750745 -1591.70482277 -1386.26296244 -1188.54660831
-  -992.7821857 ]</t>
+          <t>[ -927.99815941 -1070.12742489 -1170.96499657 -1251.15492825
+ -1344.74637369 -1422.65663273 -1490.05546078 -1526.70959183
+ -1561.06149957 -1593.43543744 -1387.34045863 -1189.05983894
+  -992.78218559]</t>
         </is>
       </c>
       <c r="E358" t="inlineStr"/>
@@ -9336,7 +9335,7 @@
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>[10.        10.        10.         9.9903992  6.       ]</t>
+          <t>[10. 10. 10. 10.  6.]</t>
         </is>
       </c>
       <c r="E360" t="inlineStr"/>
@@ -9359,7 +9358,7 @@
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>[0.096641   0.04615456 0.01563544 0.01259927]</t>
+          <t>[0.09663575 0.04614677 0.01562929 0.01259843]</t>
         </is>
       </c>
       <c r="E361" t="inlineStr"/>
@@ -9424,7 +9423,7 @@
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>[10.        10.        10.         9.9903992  6.       ]</t>
+          <t>[10. 10. 10. 10.  6.]</t>
         </is>
       </c>
       <c r="E364" t="inlineStr"/>
@@ -9447,7 +9446,7 @@
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>[0.096641   0.04615456 0.01563544 0.01259927]</t>
+          <t>[0.09663575 0.04614677 0.01562929 0.01259843]</t>
         </is>
       </c>
       <c r="E365" t="inlineStr"/>
@@ -9683,8 +9682,8 @@
       </c>
       <c r="D375" t="inlineStr">
         <is>
-          <t>[0.096641   0.096641   0.096641   0.04615456 0.04615456 0.04615456
- 0.01563544 0.01563544 0.01563544 0.01259927 0.01259927 0.01259927]</t>
+          <t>[0.09663575 0.09663575 0.09663575 0.04614677 0.04614677 0.04614677
+ 0.01562929 0.01562929 0.01562929 0.01259843 0.01259843 0.01259843]</t>
         </is>
       </c>
       <c r="E375" t="inlineStr"/>
@@ -9867,8 +9866,8 @@
       </c>
       <c r="D383" t="inlineStr">
         <is>
-          <t>[3.21719664 3.21719664 3.21719664 1.54432671 1.54432671 1.54432671
- 0.52467997 0.52451177 0.52434357 0.3944174  0.33808296 0.28174852]</t>
+          <t>[3.2170233  3.2170233  3.2170233  1.54406723 1.54406723 1.54406723
+ 0.52455824 0.52455824 0.52455824 0.39473016 0.33826392 0.28179768]</t>
         </is>
       </c>
       <c r="E383" t="inlineStr"/>
@@ -9891,8 +9890,8 @@
       </c>
       <c r="D384" t="inlineStr">
         <is>
-          <t>[1.83372967 1.83372967 1.83372967 0.87816592 0.87816592 0.87816592
- 0.29794527 0.29784982 0.29775437 0.22395315 0.19198513 0.16001717]</t>
+          <t>[1.83363041 1.83363041 1.83363041 0.87801806 0.87801806 0.87801806
+ 0.29787603 0.29787603 0.29787603 0.22413061 0.19208781 0.16004505]</t>
         </is>
       </c>
       <c r="E384" t="inlineStr"/>
@@ -9915,8 +9914,8 @@
       </c>
       <c r="D385" t="inlineStr">
         <is>
-          <t>[1.83372967 1.83372967 1.83372967 0.87816592 0.87816592 0.87816592
- 0.29794527 0.29784982 0.29775437 0.22395315 0.19198513 0.16001717]</t>
+          <t>[1.83363041 1.83363041 1.83363041 0.87801806 0.87801806 0.87801806
+ 0.29787603 0.29787603 0.29787603 0.22413061 0.19208781 0.16004505]</t>
         </is>
       </c>
       <c r="E385" t="inlineStr"/>
@@ -9939,8 +9938,8 @@
       </c>
       <c r="D386" t="inlineStr">
         <is>
-          <t>[39.44518699 39.44518699 39.44518699 19.12671198 19.12671198 19.12671198
-  6.53592727  6.52964345  6.52336366  4.27583771  2.69291811  1.55861447]</t>
+          <t>[39.44310314 39.44310314 39.44310314 19.1235281  19.1235281  19.1235281
+  6.53651388  6.53651388  6.53651388  4.28658492  2.69760159  1.55963681]</t>
         </is>
       </c>
       <c r="E386" t="inlineStr"/>
@@ -9963,8 +9962,8 @@
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>[39.44518699 39.44518699 39.44518699 19.12671198 19.12671198 19.12671198
-  6.53592727  6.52964345  6.52336366  4.27583771  2.69291811  1.55861447]</t>
+          <t>[39.44310314 39.44310314 39.44310314 19.1235281  19.1235281  19.1235281
+  6.53651388  6.53651388  6.53651388  4.28658492  2.69760159  1.55963681]</t>
         </is>
       </c>
       <c r="E387" t="inlineStr"/>
@@ -9987,8 +9986,8 @@
       </c>
       <c r="D388" t="inlineStr">
         <is>
-          <t>[78.89037398 78.89037398 78.89037397 38.25342396 38.25342396 38.25342396
- 13.07185454 13.0592869  13.04672732  8.55167542  5.38583622  3.11722894]</t>
+          <t>[78.88620628 78.88620628 78.88620628 38.24705619 38.24705619 38.24705619
+ 13.07302775 13.07302775 13.07302775  8.57316984  5.39520317  3.11927363]</t>
         </is>
       </c>
       <c r="E388" t="inlineStr"/>
@@ -10082,18 +10081,18 @@
       </c>
       <c r="D392" t="inlineStr">
         <is>
-          <t>[[-20751448.54263115]
- [-17767528.35398456]
- [-14782526.46984074]
- [-12723338.03505638]
- [-10662685.63739233]
- [ -8600792.85905649]
- [ -8170100.24865048]
- [ -7739182.84780633]
- [ -7308062.88511827]
- [ -7002486.04423237]
- [ -6740448.55278845]
- [ -6521904.15      ]]</t>
+          <t>[[-20750662.85560885]
+ [-17766902.65875328]
+ [-14782060.76640048]
+ [-12723214.51059115]
+ [-10662904.29190212]
+ [ -8601353.69254129]
+ [ -8170754.620634  ]
+ [ -7739791.87857196]
+ [ -7308487.38609732]
+ [ -7002666.10472725]
+ [ -6740487.3277682 ]
+ [ -6521904.14999999]]</t>
         </is>
       </c>
       <c r="E392" t="inlineStr"/>
@@ -10116,18 +10115,18 @@
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>[[2912478.268864  ]
- [2913369.13923878]
- [2914179.77362316]
- [2914482.49961713]
- [2915731.13078484]
- [2916743.86879116]
- [2913212.08799947]
- [2913444.35795184]
- [2913624.50904512]
- [2913259.5368297 ]
- [2913163.72271362]
- [2913009.43820939]]</t>
+          <t>[[2912478.26798407]
+ [2913369.13665294]
+ [2914179.76941957]
+ [2914482.29734036]
+ [2915730.92707288]
+ [2916743.66335226]
+ [2913211.94612077]
+ [2913444.50457518]
+ [2913624.92940318]
+ [2913260.10958063]
+ [2913163.80086305]
+ [2913009.10687143]]</t>
         </is>
       </c>
       <c r="E393" t="inlineStr"/>
@@ -10150,18 +10149,18 @@
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t>[[-3354.88906714]
- [-3354.38426215]
- [-3353.78687856]
- [-3353.24154284]
- [-3351.57177092]
- [-3349.63471314]
- [-3353.32510342]
- [-3352.45839319]
- [-3351.53253329]
- [-3351.72102237]
- [-3351.03753001]
- [-3350.00280296]]</t>
+          <t>[[-3354.88907642]
+ [-3354.38429001]
+ [-3353.78692506]
+ [-3353.24172797]
+ [-3351.57199213]
+ [-3349.63497031]
+ [-3353.32536864]
+ [-3352.45851222]
+ [-3351.53284386]
+ [-3351.72157568]
+ [-3351.04050411]
+ [-3350.00799143]]</t>
         </is>
       </c>
       <c r="E394" t="inlineStr"/>
@@ -10184,18 +10183,18 @@
       </c>
       <c r="D395" t="inlineStr">
         <is>
-          <t>[[-221062.28248198]
- [-261446.43428093]
- [-301761.48087937]
- [-359165.99867783]
- [-416277.35617294]
- [-473164.52620007]
- [-507153.3577153 ]
- [-540841.12349155]
- [-574239.66372476]
- [-605092.52282903]
- [-635412.0844143 ]
- [-664796.3435582 ]]</t>
+          <t>[[-221054.32546634]
+ [-261438.48011234]
+ [-301753.52998653]
+ [-359158.03237668]
+ [-416269.32025962]
+ [-473156.3551455 ]
+ [-507145.09032994]
+ [-540832.92602932]
+ [-574232.03783478]
+ [-605086.3029685 ]
+ [-635408.47021735]
+ [-664796.34270921]]</t>
         </is>
       </c>
       <c r="E395" t="inlineStr"/>
@@ -10218,17 +10217,17 @@
       </c>
       <c r="D396" t="inlineStr">
         <is>
-          <t>[[ 3.90088240e+08]
- [ 3.54702906e+08]
- [ 3.19234780e+08]
- [ 2.68399393e+08]
- [ 2.17383388e+08]
- [ 1.66316638e+08]
- [ 1.35675245e+08]
- [ 1.04969575e+08]
- [ 7.42276348e+07]
- [ 4.55146331e+07]
- [ 1.67816837e+07]
+          <t>[[ 3.90087804e+08]
+ [ 3.54702468e+08]
+ [ 3.19234336e+08]
+ [ 2.68398916e+08]
+ [ 2.17382829e+08]
+ [ 1.66315957e+08]
+ [ 1.35674477e+08]
+ [ 1.04968763e+08]
+ [ 7.42268790e+07]
+ [ 4.55140535e+07]
+ [ 1.67813793e+07]
  [-1.19535913e+07]]</t>
         </is>
       </c>
@@ -10252,18 +10251,18 @@
       </c>
       <c r="D397" t="inlineStr">
         <is>
-          <t>[[6490178.88535989]
- [6490103.00715864]
- [6490027.09379704]
- [6490358.54877721]
- [6490249.4053663 ]
- [6490140.18803541]
- [6490916.87637796]
- [6490850.08182318]
- [6490783.21071113]
- [6491091.77895346]
- [6491270.56210875]
- [6491533.50959582]]</t>
+          <t>[[6490178.89382945]
+ [6490103.01561081]
+ [6490027.10222982]
+ [6490358.65571206]
+ [6490249.51210252]
+ [6490140.29455996]
+ [6490917.2753343 ]
+ [6490850.07095679]
+ [6490782.81121398]
+ [6491090.66507733]
+ [6491269.69838567]
+ [6491533.17907288]]</t>
         </is>
       </c>
       <c r="E397" t="inlineStr"/>
@@ -10437,19 +10436,19 @@
       </c>
       <c r="D403" t="inlineStr">
         <is>
-          <t>[[ -927.9981594 ]
- [-1070.12742488]
- [-1170.96499655]
- [-1251.15492823]
- [-1344.74637367]
- [-1422.65663272]
- [-1490.05546077]
- [-1526.163267  ]
- [-1559.93750745]
- [-1591.70482277]
- [-1386.26296244]
- [-1188.54660831]
- [ -992.7821857 ]]</t>
+          <t>[[ -927.99815941]
+ [-1070.12742489]
+ [-1170.96499657]
+ [-1251.15492825]
+ [-1344.74637369]
+ [-1422.65663273]
+ [-1490.05546078]
+ [-1526.70959183]
+ [-1561.06149957]
+ [-1593.43543744]
+ [-1387.34045863]
+ [-1189.05983894]
+ [ -992.78218559]]</t>
         </is>
       </c>
       <c r="E403" t="inlineStr"/>
@@ -10472,7 +10471,7 @@
       </c>
       <c r="D404" t="inlineStr">
         <is>
-          <t>[1735327.82655094]</t>
+          <t>[1735226.30002442]</t>
         </is>
       </c>
       <c r="E404" t="inlineStr"/>
@@ -10495,7 +10494,7 @@
       </c>
       <c r="D405" t="inlineStr">
         <is>
-          <t>[45.17126218]</t>
+          <t>[45.1735223]</t>
         </is>
       </c>
       <c r="E405" t="inlineStr"/>
@@ -10518,7 +10517,7 @@
       </c>
       <c r="D406" t="inlineStr">
         <is>
-          <t>[5.67059662e+09 5.67059662e+09 4.21753577e+07 0.00000000e+00
+          <t>[5.67100993e+09 5.67100993e+09 4.21774610e+07 0.00000000e+00
  0.00000000e+00 0.00000000e+00]</t>
         </is>
       </c>
@@ -10574,9 +10573,9 @@
       <c r="D408" t="inlineStr">
         <is>
           <t>[    0.             0.             0.         16559.12275638
- 17361.27209703 19858.38615316 24325.85696077 31281.03302773
- 41477.85456518 56075.57314941 65556.51476364 76900.86867591
- 90542.73003851     0.             0.             0.
+ 17361.27209706 19858.38615323 24325.8569609  31281.03302822
+ 41477.85456624 56075.57315139 65556.51476523 76900.86867692
+ 90542.73003872     0.             0.             0.
      0.             0.             0.        ]</t>
         </is>
       </c>
@@ -10828,9 +10827,9 @@
       <c r="D418" t="inlineStr">
         <is>
           <t>[    0.             0.             0.         16559.12275638
- 17361.27209703 19858.38615316 24325.85696077 31281.03302773
- 41477.85456518 56075.57314941 65556.51476364 76900.86867591
- 90542.73003851     0.             0.             0.
+ 17361.27209706 19858.38615323 24325.8569609  31281.03302822
+ 41477.85456624 56075.57315139 65556.51476523 76900.86867692
+ 90542.73003872     0.             0.             0.
      0.             0.             0.        ]</t>
         </is>
       </c>
@@ -11213,9 +11212,9 @@
       <c r="D434" t="inlineStr">
         <is>
           <t>[     0.              0.              0.         -16559.12275638
- -17361.27209703 -19858.38615316 -24325.85696077 -31281.03302773
- -41477.85456518 -56075.57314941 -65556.51476364 -76900.86867591
- -90542.73003851      0.              0.              0.
+ -17361.27209706 -19858.38615323 -24325.8569609  -31281.03302822
+ -41477.85456624 -56075.57315139 -65556.51476523 -76900.86867692
+ -90542.73003872      0.              0.              0.
       0.              0.              0.        ]</t>
         </is>
       </c>
@@ -11262,7 +11261,7 @@
       <c r="C436" t="inlineStr"/>
       <c r="D436" t="inlineStr">
         <is>
-          <t>[94.95272958 52.24457585 59.97409361 68.29802941 74.54767731 81.12158286]</t>
+          <t>[94.9555955  52.24564329 59.97553178 68.29939579 74.54899363 81.12221724]</t>
         </is>
       </c>
       <c r="E436" t="inlineStr"/>
@@ -11319,7 +11318,7 @@
       <c r="C439" t="inlineStr"/>
       <c r="D439" t="inlineStr">
         <is>
-          <t>[1.81746579 0.87111906 0.87812334 0.91616576 0.91896231]</t>
+          <t>[1.81748352 0.87111597 0.87812683 0.91616791 0.91897135]</t>
         </is>
       </c>
       <c r="E439" t="inlineStr"/>
@@ -11409,7 +11408,7 @@
       </c>
       <c r="D443" t="inlineStr">
         <is>
-          <t>[6283.18530713]</t>
+          <t>[6283.18530718]</t>
         </is>
       </c>
       <c r="E443" t="inlineStr"/>
@@ -11432,7 +11431,7 @@
       </c>
       <c r="D444" t="inlineStr">
         <is>
-          <t>[63155363.28716144]</t>
+          <t>[63155363.28768826]</t>
         </is>
       </c>
       <c r="E444" t="inlineStr"/>
@@ -11451,7 +11450,7 @@
       <c r="C445" t="inlineStr"/>
       <c r="D445" t="inlineStr">
         <is>
-          <t>[4.]</t>
+          <t>[5.]</t>
         </is>
       </c>
       <c r="E445" t="inlineStr"/>
@@ -11871,8 +11870,8 @@
       </c>
       <c r="D463" t="inlineStr">
         <is>
-          <t>[27322.64551084 49225.90855053 42989.47500957 37828.07611242
- 34699.96060574 31923.09139948]</t>
+          <t>[27321.82964257 49224.92243556 42988.46163303 37827.33057528
+ 34699.35623557 31922.84487748]</t>
         </is>
       </c>
       <c r="E463" t="inlineStr">
@@ -11899,8 +11898,8 @@
       </c>
       <c r="D464" t="inlineStr">
         <is>
-          <t>[334415.08089899 592219.21524863 519747.21496029 459206.99684772
- 422268.77187095 389321.87886126]</t>
+          <t>[334405.30763285 592207.81448858 519735.37851346 459198.21544287
+ 422261.6171617  389318.94740889]</t>
         </is>
       </c>
       <c r="E464" t="inlineStr">
@@ -11927,8 +11926,8 @@
       </c>
       <c r="D465" t="inlineStr">
         <is>
-          <t>[334415.08089899 592219.21524863 519747.21496029 459206.99684772
- 422268.77187095 389321.87886126]</t>
+          <t>[334405.30763285 592207.81448858 519735.37851346 459198.21544287
+ 422261.6171617  389318.94740889]</t>
         </is>
       </c>
       <c r="E465" t="inlineStr">
@@ -11955,8 +11954,8 @@
       </c>
       <c r="D466" t="inlineStr">
         <is>
-          <t>[8.01378099e+12 1.41916898e+13 1.24550016e+13 1.10042415e+13
- 1.01190695e+13 9.32954419e+12]</t>
+          <t>[8.01354679e+12 1.41914166e+13 1.24547179e+13 1.10040310e+13
+ 1.01188981e+13 9.32947394e+12]</t>
         </is>
       </c>
       <c r="E466" t="inlineStr">
@@ -11983,8 +11982,8 @@
       </c>
       <c r="D467" t="inlineStr">
         <is>
-          <t>[8.01378099e+12 1.41916898e+13 1.24550016e+13 1.10042415e+13
- 1.01190695e+13 9.32954419e+12]</t>
+          <t>[8.01354679e+12 1.41914166e+13 1.24547179e+13 1.10040310e+13
+ 1.01188981e+13 9.32947394e+12]</t>
         </is>
       </c>
       <c r="E467" t="inlineStr">
@@ -12011,8 +12010,8 @@
       </c>
       <c r="D468" t="inlineStr">
         <is>
-          <t>[6.35492833e+12 1.12540100e+13 9.87681623e+12 8.72636349e+12
- 8.02442214e+12 7.39832854e+12]</t>
+          <t>[6.35474261e+12 1.12537934e+13 9.87659131e+12 8.72619662e+12
+ 8.02428618e+12 7.39827283e+12]</t>
         </is>
       </c>
       <c r="E468" t="inlineStr">
@@ -12039,8 +12038,8 @@
       </c>
       <c r="D469" t="inlineStr">
         <is>
-          <t>[6.54748275e+11 1.17962877e+12 1.03018152e+12 9.06495953e+11
- 8.31535121e+11 7.64991407e+11]</t>
+          <t>[6.54728724e+11 1.17960514e+12 1.03015724e+12 9.06478087e+11
+ 8.31520638e+11 7.64985499e+11]</t>
         </is>
       </c>
       <c r="E469" t="inlineStr">
@@ -12148,12 +12147,12 @@
       </c>
       <c r="D473" t="inlineStr">
         <is>
-          <t>[[0.         0.         0.3054609  0.12478504 0.12478504 0.        ]
- [0.         0.         0.16954486 0.07046377 0.07046377 0.        ]
- [0.         0.         0.19414054 0.08028903 0.08028903 0.        ]
- [0.         0.         0.22062978 0.09087405 0.09087405 0.        ]
- [0.         0.         0.24051901 0.09882332 0.09882332 0.        ]
- [0.         0.         0.26144085 0.10718637 0.10718637 0.        ]]</t>
+          <t>[[0.         0.         0.30547003 0.12478869 0.12478869 0.        ]
+ [0.         0.         0.16954826 0.07046513 0.07046513 0.        ]
+ [0.         0.         0.19414512 0.08029086 0.08029086 0.        ]
+ [0.         0.         0.22063413 0.09087579 0.09087579 0.        ]
+ [0.         0.         0.24052319 0.09882499 0.09882499 0.        ]
+ [0.         0.         0.26144286 0.10718718 0.10718718 0.        ]]</t>
         </is>
       </c>
       <c r="E473" t="inlineStr"/>
@@ -12176,12 +12175,12 @@
       </c>
       <c r="D474" t="inlineStr">
         <is>
-          <t>[[0.50065027 0.50065027 0.         0.         0.         0.06239252]
- [0.27670147 0.27670147 0.         0.         0.         0.03523189]
- [0.31723886 0.31723886 0.         0.         0.         0.04014452]
- [0.36088949 0.36088949 0.         0.         0.         0.04543703]
- [0.39366058 0.39366058 0.         0.         0.         0.04941166]
- [0.42813058 0.42813058 0.         0.         0.         0.05359319]]</t>
+          <t>[[0.5006653  0.5006653  0.         0.         0.         0.06239434]
+ [0.27670707 0.27670707 0.         0.         0.         0.03523256]
+ [0.3172464  0.3172464  0.         0.         0.         0.04014543]
+ [0.36089666 0.36089666 0.         0.         0.         0.04543789]
+ [0.39366748 0.39366748 0.         0.         0.         0.04941249]
+ [0.4281339  0.4281339  0.         0.         0.         0.05359359]]</t>
         </is>
       </c>
       <c r="E474" t="inlineStr"/>
@@ -12204,7 +12203,7 @@
       </c>
       <c r="D475" t="inlineStr">
         <is>
-          <t>[1423.39478739]</t>
+          <t>[1423.38336489]</t>
         </is>
       </c>
       <c r="E475" t="inlineStr"/>
@@ -12227,7 +12226,7 @@
       </c>
       <c r="D476" t="inlineStr">
         <is>
-          <t>[8242247.46431286]</t>
+          <t>[8242073.94649401]</t>
         </is>
       </c>
       <c r="E476" t="inlineStr"/>
@@ -12250,7 +12249,7 @@
       </c>
       <c r="D477" t="inlineStr">
         <is>
-          <t>[3548882.86070612]</t>
+          <t>[3548803.66314494]</t>
         </is>
       </c>
       <c r="E477" t="inlineStr"/>
@@ -12273,7 +12272,7 @@
       </c>
       <c r="D478" t="inlineStr">
         <is>
-          <t>[49.56312947]</t>
+          <t>[49.56323269]</t>
         </is>
       </c>
       <c r="E478" t="inlineStr"/>
@@ -12296,7 +12295,7 @@
       </c>
       <c r="D479" t="inlineStr">
         <is>
-          <t>[1.10278729e+10 1.10278729e+10 8.60662962e+07 0.00000000e+00
+          <t>[1.10276625e+10 1.10276625e+10 8.60644323e+07 0.00000000e+00
  0.00000000e+00 0.00000000e+00]</t>
         </is>
       </c>
@@ -12343,9 +12342,9 @@
       </c>
       <c r="D481" t="inlineStr">
         <is>
-          <t>[0.11268765 0.11268765 0.11268765 0.20480595 0.20480595 0.20480595
- 0.17841037 0.17841037 0.17841037 0.15666631 0.15666631 0.15666631
- 0.14353231 0.14353231 0.14353231 0.13190078 0.13190078 0.13190078]</t>
+          <t>[0.11268425 0.11268425 0.11268425 0.20480177 0.20480177 0.20480177
+ 0.17840609 0.17840609 0.17840609 0.15666317 0.15666317 0.15666317
+ 0.14352977 0.14352977 0.14352977 0.13189975 0.13189975 0.13189975]</t>
         </is>
       </c>
       <c r="E481" t="inlineStr"/>
@@ -12393,7 +12392,7 @@
       </c>
       <c r="D483" t="inlineStr">
         <is>
-          <t>[3648882.86070612]</t>
+          <t>[3648803.66314494]</t>
         </is>
       </c>
       <c r="E483" t="inlineStr"/>
@@ -12416,7 +12415,7 @@
       </c>
       <c r="D484" t="inlineStr">
         <is>
-          <t>[8742247.46431286]</t>
+          <t>[8742073.94649401]</t>
         </is>
       </c>
       <c r="E484" t="inlineStr"/>
@@ -12439,7 +12438,7 @@
       </c>
       <c r="D485" t="inlineStr">
         <is>
-          <t>[50.80835636]</t>
+          <t>[50.80848378]</t>
         </is>
       </c>
       <c r="E485" t="inlineStr"/>
@@ -12462,7 +12461,7 @@
       </c>
       <c r="D486" t="inlineStr">
         <is>
-          <t>[1.19316229e+10 1.19316229e+10 8.85662962e+07 0.00000000e+00
+          <t>[1.19314125e+10 1.19314125e+10 8.85644323e+07 0.00000000e+00
  0.00000000e+00 0.00000000e+00]</t>
         </is>
       </c>
@@ -12486,7 +12485,7 @@
       </c>
       <c r="D487" t="inlineStr">
         <is>
-          <t>[5384210.68725706]</t>
+          <t>[5384029.96316936]</t>
         </is>
       </c>
       <c r="E487" t="inlineStr"/>
@@ -12509,7 +12508,7 @@
       </c>
       <c r="D488" t="inlineStr">
         <is>
-          <t>[13180113.75414688]</t>
+          <t>[13179841.43614005]</t>
         </is>
       </c>
       <c r="E488" t="inlineStr"/>
@@ -12582,7 +12581,7 @@
       </c>
       <c r="D491" t="inlineStr">
         <is>
-          <t>[0.22108759]</t>
+          <t>[0.22108698]</t>
         </is>
       </c>
       <c r="E491" t="inlineStr"/>
@@ -12605,7 +12604,7 @@
       </c>
       <c r="D492" t="inlineStr">
         <is>
-          <t>[0.22       0.22108759 0.85587257 0.91061694 0.99464016 1.60171965]</t>
+          <t>[0.22       0.22108698 0.85613568 0.91081822 0.99513949 1.60255269]</t>
         </is>
       </c>
       <c r="E492" t="inlineStr"/>
@@ -12628,7 +12627,7 @@
       </c>
       <c r="D493" t="inlineStr">
         <is>
-          <t>[0.22108759 0.91061694 1.80650816]</t>
+          <t>[0.22108698 0.91081822 1.8075331 ]</t>
         </is>
       </c>
       <c r="E493" t="inlineStr"/>
@@ -12651,7 +12650,7 @@
       </c>
       <c r="D494" t="inlineStr">
         <is>
-          <t>[0.22       0.85587257 1.60171965]</t>
+          <t>[0.22       0.85613568 1.60255269]</t>
         </is>
       </c>
       <c r="E494" t="inlineStr"/>
@@ -12674,7 +12673,7 @@
       </c>
       <c r="D495" t="inlineStr">
         <is>
-          <t>[4.37436539 0.         0.        ]</t>
+          <t>[4.37450479 0.         0.        ]</t>
         </is>
       </c>
       <c r="E495" t="inlineStr"/>
@@ -12693,9 +12692,9 @@
       <c r="C496" t="inlineStr"/>
       <c r="D496" t="inlineStr">
         <is>
-          <t>[[  0.97460723  -0.14172739  -0.44125235   1.37634962  -0.7679771 ]
- [ -2.72568319   3.1150933   -0.35074874   1.77781239  -0.81647376]
- [ -6.42308355  13.44890975   5.8034945    0.96563132 -12.79495202]]</t>
+          <t>[[  0.97470717  -0.14199311  -0.44098079   1.3770876   -0.76882087]
+ [ -2.7262969    3.11647389  -0.35560017   1.79271395  -0.82729077]
+ [ -6.42467033  13.443543     5.91363484   0.76346296 -12.69597048]]</t>
         </is>
       </c>
       <c r="E496" t="inlineStr"/>
@@ -12714,9 +12713,9 @@
       <c r="C497" t="inlineStr"/>
       <c r="D497" t="inlineStr">
         <is>
-          <t>[[  0.96644547  -0.1386672   -0.42976249   1.34783683  -0.7458526 ]
- [ -2.72699046   2.90153733   0.1039969    0.50029944   0.2211568 ]
- [ -4.96981118   9.71869384  -0.53417274  10.23794689 -13.4526568 ]]</t>
+          <t>[[  0.96655326  -0.13892413  -0.42957495   1.34874087  -0.74679506]
+ [ -2.72762034   2.9036763    0.09533442   0.52253795   0.20607166]
+ [ -4.97171227   9.71629556  -0.46692572  10.12448967 -13.40214724]]</t>
         </is>
       </c>
       <c r="E497" t="inlineStr"/>
@@ -12735,7 +12734,7 @@
       <c r="C498" t="inlineStr"/>
       <c r="D498" t="inlineStr">
         <is>
-          <t>[[ -2.65960603  13.54321323 -36.3586615   46.95993971 -20.48488541]
+          <t>[[ -2.66072504  13.5445363  -36.35658944  46.95956607 -20.48678789]
  [  0.           0.           0.           0.           0.        ]
  [  0.           0.           0.           0.           0.        ]]</t>
         </is>
@@ -12756,9 +12755,9 @@
       <c r="C499" t="inlineStr"/>
       <c r="D499" t="inlineStr">
         <is>
-          <t>[[  0.65449319   1.61916909  -3.93864039   4.57275007  -1.90777196]
- [ -0.07611008   2.65422112  -5.59588988   6.80200629  -2.78422744]
- [  5.68832412  -6.35913586  25.12482522 -31.58332868   8.1293152 ]]</t>
+          <t>[[  0.65518874   1.61434815  -3.92462944   4.55707084  -1.90197828]
+ [ -0.07477791   2.64580007  -5.57229376   6.77714864  -2.77587704]
+ [  5.7006398   -6.35146229  25.1423675  -31.66163324   8.17008824]]</t>
         </is>
       </c>
       <c r="E499" t="inlineStr"/>
@@ -12777,9 +12776,9 @@
       <c r="C500" t="inlineStr"/>
       <c r="D500" t="inlineStr">
         <is>
-          <t>[[  0.64367341   1.63681111  -3.98109214   4.61807831  -1.9174707 ]
- [ -0.15843355   2.80601288  -6.0805698    7.28629079  -2.85330032]
- [  2.57056179  -1.75365829   9.27671755 -10.61384317   1.52022212]]</t>
+          <t>[[  0.64438769   1.63192027  -3.96692915   4.60228969  -1.9116685 ]
+ [ -0.15694473   2.79697248  -6.05567708   7.26080893  -2.8451596 ]
+ [  2.57436153  -1.75231095   9.29030078 -10.65223603   1.53988467]]</t>
         </is>
       </c>
       <c r="E500" t="inlineStr"/>
@@ -12798,7 +12797,7 @@
       <c r="C501" t="inlineStr"/>
       <c r="D501" t="inlineStr">
         <is>
-          <t>[[ -3.83715833  30.52096211 -82.84519073  97.532444   -40.37105705]
+          <t>[[ -3.83360645  30.49064959 -82.75779555  97.43405888 -40.33330646]
  [  0.           0.           0.           0.           0.        ]
  [  0.           0.           0.           0.           0.        ]]</t>
         </is>
@@ -12823,37 +12822,37 @@
       </c>
       <c r="D502" t="inlineStr">
         <is>
-          <t>[[2.74888941e-04]
- [5.16206359e-04]
- [7.72283194e-05]
- [4.66973232e-03]
- [1.11257535e-02]
- [1.92690174e-02]
- [2.90414657e-02]
- [4.05032577e-02]
- [5.36886862e-02]
- [6.85311824e-02]
- [7.65845055e-02]
- [8.50784357e-02]
- [9.40035423e-02]
- [1.03372832e-01]
- [1.13190518e-01]
- [1.23446353e-01]
- [1.28742044e-01]
- [1.34152372e-01]
- [1.39675949e-01]
- [1.83743803e-01]
- [2.34568440e-01]
- [2.91480858e-01]
- [3.87938395e-01]
- [5.03193902e-01]
- [6.33228846e-01]
- [7.20994003e-01]
- [8.17578316e-01]
- [9.20453422e-01]
- [1.02099123e+00]
- [1.12387718e+00]
- [1.22467214e+00]]</t>
+          <t>[[2.74883832e-04]
+ [5.16209869e-04]
+ [7.72088173e-05]
+ [4.66976993e-03]
+ [1.11259191e-02]
+ [1.92693436e-02]
+ [2.90419842e-02]
+ [4.05040046e-02]
+ [5.36897013e-02]
+ [6.85325038e-02]
+ [7.65859935e-02]
+ [8.50800990e-02]
+ [9.40053892e-02]
+ [1.03374870e-01]
+ [1.13192756e-01]
+ [1.23448798e-01]
+ [1.28744594e-01]
+ [1.34155029e-01]
+ [1.39678714e-01]
+ [1.83747552e-01]
+ [2.34573535e-01]
+ [2.91487622e-01]
+ [3.87949662e-01]
+ [5.03212816e-01]
+ [6.33257876e-01]
+ [7.21029466e-01]
+ [8.17615154e-01]
+ [9.20481965e-01]
+ [1.02100195e+00]
+ [1.12386562e+00]
+ [1.22463966e+00]]</t>
         </is>
       </c>
       <c r="E502" t="inlineStr"/>
@@ -12876,7 +12875,7 @@
       </c>
       <c r="D503" t="inlineStr">
         <is>
-          <t>[1.22467214]</t>
+          <t>[1.22463966]</t>
         </is>
       </c>
       <c r="E503" t="inlineStr"/>
@@ -12899,24 +12898,24 @@
       </c>
       <c r="D504" t="inlineStr">
         <is>
-          <t>[[-58896511.77744148]
- [-56217163.16452366]
- [-53455846.89568235]
- [-50125739.80997048]
- [-46784745.16074432]
- [-43420767.37825669]
- [-40426804.76204254]
- [-37376240.54664662]
- [-34243854.35352661]
- [-32806646.04494179]
- [-31335076.02279167]
- [-29822278.74029963]
- [-28538619.04872009]
- [-27404354.85380957]
- [-26270090.65889903]
- [-25748343.4173696 ]
- [-25226596.17584005]
- [-24704848.93431005]]</t>
+          <t>[[-58894865.69352221]
+ [-56215597.14009327]
+ [-53454360.93074066]
+ [-50124318.19906779]
+ [-46783387.90388036]
+ [-43419474.47543131]
+ [-40425578.25624146]
+ [-37375080.4378695 ]
+ [-34242760.64177395]
+ [-32805576.84901398]
+ [-31334031.34268811]
+ [-29821258.57602042]
+ [-28537618.54817432]
+ [-27403374.01699761]
+ [-26269129.48582102]
+ [-25747386.26641833]
+ [-25225643.04701698]
+ [-24703899.82761519]]</t>
         </is>
       </c>
       <c r="E504" t="inlineStr"/>
@@ -12939,24 +12938,24 @@
       </c>
       <c r="D505" t="inlineStr">
         <is>
-          <t>[[ -6105692.24134605]
- [-14357927.18070691]
- [-13603501.43865598]
- [  2913588.80790205]
- [  2914015.83021369]
- [  2914439.32128056]
- [  2914545.025784  ]
- [  2914984.36442472]
- [  2915449.06653648]
- [  2913708.56422608]
- [  2913846.26729926]
- [  2913995.26657311]
- [  2913851.66366023]
- [  2913646.60799812]
- [  2913721.15448857]
- [  2912805.13355869]
- [  2912823.07721472]
- [  2912840.80329619]]</t>
+          <t>[[ -6105578.75996713]
+ [-14357869.80999915]
+ [-13603634.44763141]
+ [  2913588.80870609]
+ [  2914015.83114831]
+ [  2914439.3225658 ]
+ [  2914545.01991281]
+ [  2914984.3599374 ]
+ [  2915449.06429176]
+ [  2913708.5704746 ]
+ [  2913846.27465086]
+ [  2913995.2752948 ]
+ [  2913851.67439101]
+ [  2913646.61297188]
+ [  2913721.1594591 ]
+ [  2912805.14370108]
+ [  2912823.08736556]
+ [  2912840.81344237]]</t>
         </is>
       </c>
       <c r="E505" t="inlineStr"/>
@@ -12979,24 +12978,24 @@
       </c>
       <c r="D506" t="inlineStr">
         <is>
-          <t>[[   97.56346672]
- [ -138.19791652]
- [-1541.51564527]
- [-3355.14856935]
- [-3355.13682798]
- [-3355.10868488]
- [-3355.0644332 ]
- [-3355.00076279]
- [-3354.91630765]
- [-3354.96879995]
- [-3354.93734834]
- [-3354.90142132]
- [-3354.89053931]
- [-3354.88817354]
- [-3354.85606245]
- [-3354.96315203]
- [-3354.95441333]
- [-3354.94543196]]</t>
+          <t>[[   97.6095452 ]
+ [ -138.07717053]
+ [-1541.38477072]
+ [-3355.14858107]
+ [-3355.13684313]
+ [-3355.10870355]
+ [-3355.06445306]
+ [-3355.00078646]
+ [-3354.91633536]
+ [-3354.96881349]
+ [-3354.93736304]
+ [-3354.90143725]
+ [-3354.89055396]
+ [-3354.88818721]
+ [-3354.85607694]
+ [-3354.96315789]
+ [-3354.95441939]
+ [-3354.94543823]]</t>
         </is>
       </c>
       <c r="E506" t="inlineStr"/>
@@ -13019,24 +13018,24 @@
       </c>
       <c r="D507" t="inlineStr">
         <is>
-          <t>[[   4069.92608461]
- [  11610.22190773]
- [   3588.62498303]
- [ -16285.76325736]
- [ -38665.1467473 ]
- [ -61038.42165879]
- [ -83403.39000567]
- [-105757.2651634 ]
- [-128098.96104009]
- [-139265.46374371]
- [-150428.41372181]
- [-161587.84086667]
- [-172743.81995465]
- [-183895.92659801]
- [-195044.11365979]
- [-200616.98584798]
- [-206188.80416703]
- [-211759.57973853]]</t>
+          <t>[[   4070.25725258]
+ [  11612.17229336]
+ [   3592.74128265]
+ [ -16281.13346434]
+ [ -38660.51987551]
+ [ -61033.79819174]
+ [ -83398.77040269]
+ [-105752.64986706]
+ [-128094.35041817]
+ [-139260.85553165]
+ [-150423.8080283 ]
+ [-161583.23779295]
+ [-172739.21960086]
+ [-183891.32909573]
+ [-195039.51914443]
+ [-200612.39286306]
+ [-206184.21276828]
+ [-211754.98998171]]</t>
         </is>
       </c>
       <c r="E507" t="inlineStr"/>
@@ -13059,24 +13058,24 @@
       </c>
       <c r="D508" t="inlineStr">
         <is>
-          <t>[[6.44498000e+07]
- [2.84041228e+08]
- [5.31708692e+08]
- [5.76399901e+08]
- [5.56578531e+08]
- [5.36708148e+08]
- [5.16797288e+08]
- [4.96851064e+08]
- [4.76883129e+08]
- [4.66900581e+08]
- [4.56915336e+08]
- [4.46929080e+08]
- [4.36943077e+08]
- [4.26956302e+08]
- [4.16968660e+08]
- [4.11976230e+08]
- [4.06983629e+08]
- [4.01990994e+08]]</t>
+          <t>[[6.44478632e+07]
+ [2.84037625e+08]
+ [5.31707512e+08]
+ [5.76400005e+08]
+ [5.56578639e+08]
+ [5.36708260e+08]
+ [5.16797405e+08]
+ [4.96851186e+08]
+ [4.76883257e+08]
+ [4.66900712e+08]
+ [4.56915470e+08]
+ [4.46929217e+08]
+ [4.36943219e+08]
+ [4.26956448e+08]
+ [4.16968810e+08]
+ [4.11976382e+08]
+ [4.06983784e+08]
+ [4.01991152e+08]]</t>
         </is>
       </c>
       <c r="E508" t="inlineStr"/>
@@ -13099,24 +13098,24 @@
       </c>
       <c r="D509" t="inlineStr">
         <is>
-          <t>[[1182643.75812387]
- [2527628.17586713]
- [4219597.77045017]
- [6490268.35326679]
- [6490225.16238762]
- [6490181.83087638]
- [6490219.89701974]
- [6490175.43335764]
- [6490130.12972567]
- [6490152.99952917]
- [6490128.74354894]
- [6490103.9078287 ]
- [6490123.74861871]
- [6490100.13130713]
- [6490079.26277981]
- [6490100.43686549]
- [6490090.00258456]
- [6490079.56833731]]</t>
+          <t>[[1182633.61390832]
+ [2527611.25226837]
+ [4219581.91180333]
+ [6490268.34785137]
+ [6490225.15694367]
+ [6490181.8254011 ]
+ [6490219.89300864]
+ [6490175.42928526]
+ [6490130.12557227]
+ [6490152.99254337]
+ [6490128.73649536]
+ [6490103.90069595]
+ [6490123.73937306]
+ [6490100.12201343]
+ [6490079.25348578]
+ [6490100.42167482]
+ [6490089.9873942 ]
+ [6490079.55314714]]</t>
         </is>
       </c>
       <c r="E509" t="inlineStr"/>
@@ -13140,8 +13139,8 @@
       <c r="D510" t="inlineStr">
         <is>
           <t>[[ 2.91358881e+06]
- [-3.35514857e+03]
- [-5.34558469e+07]]</t>
+ [-3.35514858e+03]
+ [-5.34543609e+07]]</t>
         </is>
       </c>
       <c r="E510" t="inlineStr"/>
@@ -13164,8 +13163,8 @@
       </c>
       <c r="D511" t="inlineStr">
         <is>
-          <t>[[6.09697047e+03]
- [5.96158188e+08]
+          <t>[[6.10160264e+03]
+ [5.96158289e+08]
  [6.49026835e+06]]</t>
         </is>
       </c>
@@ -13222,7 +13221,7 @@
  10.         10.         10.         10.         10.         10.
  10.         10.         10.         10.         10.         10.
  10.         10.         10.         10.         10.         10.
- 10.          9.99679973  9.99359947  9.9903992   8.66026614  7.33013307
+ 10.         10.         10.         10.          8.66666667  7.33333333
   6.        ]</t>
         </is>
       </c>
@@ -13246,11 +13245,11 @@
       </c>
       <c r="D514" t="inlineStr">
         <is>
-          <t>[0.10531556 0.10531556 0.10531556 0.19140743 0.19140743 0.19140743
- 0.16673866 0.16673866 0.16673866 0.14641711 0.14641711 0.14641711
- 0.13414234 0.13414234 0.13414234 0.12327176 0.12327176 0.12327176
- 0.096641   0.096641   0.096641   0.04615456 0.04615456 0.04615456
- 0.01563544 0.01563544 0.01563544 0.01259927 0.01259927 0.01259927]</t>
+          <t>[0.10531238 0.10531238 0.10531238 0.19140352 0.19140352 0.19140352
+ 0.16673466 0.16673466 0.16673466 0.14641418 0.14641418 0.14641418
+ 0.13413997 0.13413997 0.13413997 0.12327079 0.12327079 0.12327079
+ 0.09663575 0.09663575 0.09663575 0.04614677 0.04614677 0.04614677
+ 0.01562929 0.01562929 0.01562929 0.01259843 0.01259843 0.01259843]</t>
         </is>
       </c>
       <c r="E514" t="inlineStr"/>
@@ -13349,11 +13348,11 @@
       </c>
       <c r="D518" t="inlineStr">
         <is>
-          <t>[3.50290327 3.50290327 3.50290327 6.31101392 6.31101392 6.31101392
- 5.51147116 5.51147116 5.51147116 4.84975335 4.84975335 4.84975335
- 4.4487129  4.4487129  4.4487129  4.09270403 4.09270403 4.09270403
- 3.21719664 3.21719664 3.21719664 1.54432671 1.54432671 1.54432671
- 0.52467997 0.52451177 0.52434357 0.3944174  0.33808296 0.28174852]</t>
+          <t>[3.50279867 3.50279867 3.50279867 6.31088749 6.31088749 6.31088749
+ 5.51134124 5.51134124 5.51134124 4.84965777 4.84965777 4.84965777
+ 4.44863541 4.44863541 4.44863541 4.09267242 4.09267242 4.09267242
+ 3.2170233  3.2170233  3.2170233  1.54406723 1.54406723 1.54406723
+ 0.52455824 0.52455824 0.52455824 0.39473016 0.33826392 0.28179768]</t>
         </is>
       </c>
       <c r="E518" t="inlineStr"/>
@@ -13376,11 +13375,11 @@
       </c>
       <c r="D519" t="inlineStr">
         <is>
-          <t>[1.9974023  1.9974023  1.9974023  3.61400325 3.61400325 3.61400325
- 3.15219899 3.15219899 3.15219899 2.77093132 2.77093132 2.77093132
- 2.54025945 2.54025945 2.54025945 2.335736   2.335736   2.335736
- 1.83372967 1.83372967 1.83372967 0.87816592 0.87816592 0.87816592
- 0.29794527 0.29784982 0.29775437 0.22395315 0.19198513 0.16001717]</t>
+          <t>[1.99734235 1.99734235 1.99734235 3.61393013 3.61393013 3.61393013
+ 3.15212405 3.15212405 3.15212405 2.77087631 2.77087631 2.77087631
+ 2.54021491 2.54021491 2.54021491 2.33571785 2.33571785 2.33571785
+ 1.83363041 1.83363041 1.83363041 0.87801806 0.87801806 0.87801806
+ 0.29787603 0.29787603 0.29787603 0.22413061 0.19208781 0.16004505]</t>
         </is>
       </c>
       <c r="E519" t="inlineStr"/>
@@ -13403,11 +13402,11 @@
       </c>
       <c r="D520" t="inlineStr">
         <is>
-          <t>[1.9974023  1.9974023  1.9974023  3.61400325 3.61400325 3.61400325
- 3.15219899 3.15219899 3.15219899 2.77093132 2.77093132 2.77093132
- 2.54025945 2.54025945 2.54025945 2.335736   2.335736   2.335736
- 1.83372967 1.83372967 1.83372967 0.87816592 0.87816592 0.87816592
- 0.29794527 0.29784982 0.29775437 0.22395315 0.19198513 0.16001717]</t>
+          <t>[1.99734235 1.99734235 1.99734235 3.61393013 3.61393013 3.61393013
+ 3.15212405 3.15212405 3.15212405 2.77087631 2.77087631 2.77087631
+ 2.54021491 2.54021491 2.54021491 2.33571785 2.33571785 2.33571785
+ 1.83363041 1.83363041 1.83363041 0.87801806 0.87801806 0.87801806
+ 0.29787603 0.29787603 0.29787603 0.22413061 0.19208781 0.16004505]</t>
         </is>
       </c>
       <c r="E520" t="inlineStr"/>
@@ -13430,12 +13429,12 @@
       </c>
       <c r="D521" t="inlineStr">
         <is>
-          <t>[ 85.74745664  85.74745664  85.74745664 151.85108083 151.85108083
- 151.85108083 133.26851666 133.26851666 133.26851665 117.74538381
- 117.74538381 117.74538381 108.27404407 108.27404407 108.27404407
-  99.82612278  99.82612278  99.82612278  78.89037398  78.89037398
-  78.89037397  38.25342396  38.25342396  38.25342396  13.07185454
-  13.0592869   13.04672732   8.55167542   5.38583622   3.11722894]</t>
+          <t>[ 85.74495068  85.74495068  85.74495068 151.84815756 151.84815756
+ 151.84815756 133.26548167 133.26548167 133.26548167 117.74313216
+ 117.74313216 117.74313216 108.27220953 108.27220953 108.27220953
+  99.82537113  99.82537113  99.82537113  78.88620628  78.88620628
+  78.88620628  38.24705619  38.24705619  38.24705619  13.07302775
+  13.07302775  13.07302775   8.57316984   5.39520317   3.11927363]</t>
         </is>
       </c>
       <c r="E521" t="inlineStr"/>
@@ -13458,11 +13457,11 @@
       </c>
       <c r="D522" t="inlineStr">
         <is>
-          <t>[42.87372832 42.87372832 42.87372832 75.92554042 75.92554042 75.92554042
- 66.63425833 66.63425833 66.63425833 58.8726919  58.8726919  58.8726919
- 54.13702203 54.13702203 54.13702203 49.91306139 49.91306139 49.91306139
- 39.44518699 39.44518699 39.44518699 19.12671198 19.12671198 19.12671198
-  6.53592727  6.52964345  6.52336366  4.27583771  2.69291811  1.55861447]</t>
+          <t>[42.87247534 42.87247534 42.87247534 75.92407878 75.92407878 75.92407878
+ 66.63274084 66.63274084 66.63274084 58.87156608 58.87156608 58.87156608
+ 54.13610476 54.13610476 54.13610476 49.91268557 49.91268557 49.91268557
+ 39.44310314 39.44310314 39.44310314 19.1235281  19.1235281  19.1235281
+  6.53651388  6.53651388  6.53651388  4.28658492  2.69760159  1.55963681]</t>
         </is>
       </c>
       <c r="E522" t="inlineStr"/>
@@ -13485,11 +13484,11 @@
       </c>
       <c r="D523" t="inlineStr">
         <is>
-          <t>[42.87372832 42.87372832 42.87372832 75.92554042 75.92554042 75.92554042
- 66.63425833 66.63425833 66.63425833 58.8726919  58.8726919  58.8726919
- 54.13702203 54.13702203 54.13702203 49.91306139 49.91306139 49.91306139
- 39.44518699 39.44518699 39.44518699 19.12671198 19.12671198 19.12671198
-  6.53592727  6.52964345  6.52336366  4.27583771  2.69291811  1.55861447]</t>
+          <t>[42.87247534 42.87247534 42.87247534 75.92407878 75.92407878 75.92407878
+ 66.63274084 66.63274084 66.63274084 58.87156608 58.87156608 58.87156608
+ 54.13610476 54.13610476 54.13610476 49.91268557 49.91268557 49.91268557
+ 39.44310314 39.44310314 39.44310314 19.1235281  19.1235281  19.1235281
+  6.53651388  6.53651388  6.53651388  4.28658492  2.69760159  1.55963681]</t>
         </is>
       </c>
       <c r="E523" t="inlineStr"/>
@@ -13614,36 +13613,36 @@
       </c>
       <c r="D527" t="inlineStr">
         <is>
-          <t>[[-5.88965118e+07]
- [-5.62171632e+07]
- [-5.34558469e+07]
- [-5.01257398e+07]
- [-4.67847452e+07]
- [-4.34207674e+07]
- [-4.04268048e+07]
- [-3.73762405e+07]
- [-3.42438544e+07]
- [-3.28066460e+07]
- [-3.13350760e+07]
- [-2.98222787e+07]
- [-2.85386190e+07]
- [-2.74043549e+07]
- [-2.62700907e+07]
- [-2.57483434e+07]
- [-2.52265962e+07]
- [-2.47048489e+07]
- [-2.07481419e+07]
- [-1.77656735e+07]
- [-1.47817533e+07]
- [-1.27240483e+07]
- [-1.06648599e+07]
- [-8.60420747e+06]
- [-8.17404499e+06]
- [-7.74348550e+06]
- [-7.31270122e+06]
- [-7.00629417e+06]
- [-6.74232949e+06]
- [ 1.89174898e-09]]</t>
+          <t>[[-5.88948657e+07]
+ [-5.62155971e+07]
+ [-5.34543609e+07]
+ [-5.01243182e+07]
+ [-4.67833879e+07]
+ [-4.34194745e+07]
+ [-4.04255783e+07]
+ [-3.73750804e+07]
+ [-3.42427606e+07]
+ [-3.28055768e+07]
+ [-3.13340313e+07]
+ [-2.98212586e+07]
+ [-2.85376185e+07]
+ [-2.74033740e+07]
+ [-2.62691295e+07]
+ [-2.57473863e+07]
+ [-2.52256430e+07]
+ [-2.47038998e+07]
+ [-2.07473528e+07]
+ [-1.77650444e+07]
+ [-1.47812842e+07]
+ [-1.27239213e+07]
+ [-1.06650751e+07]
+ [-8.60476487e+06]
+ [-8.17469873e+06]
+ [-7.74409966e+06]
+ [-7.31313692e+06]
+ [-7.00648521e+06]
+ [-6.74237341e+06]
+ [ 2.19588401e-08]]</t>
         </is>
       </c>
       <c r="E527" t="inlineStr"/>
@@ -13666,36 +13665,36 @@
       </c>
       <c r="D528" t="inlineStr">
         <is>
-          <t>[[-6.10569224e+06]
- [-1.43579272e+07]
- [-1.36035014e+07]
+          <t>[[-6.10557876e+06]
+ [-1.43578698e+07]
+ [-1.36036344e+07]
  [ 2.91358881e+06]
  [ 2.91401583e+06]
  [ 2.91443932e+06]
- [ 2.91454503e+06]
+ [ 2.91454502e+06]
  [ 2.91498436e+06]
- [ 2.91544907e+06]
- [ 2.91370856e+06]
+ [ 2.91544906e+06]
+ [ 2.91370857e+06]
  [ 2.91384627e+06]
- [ 2.91399527e+06]
- [ 2.91385166e+06]
+ [ 2.91399528e+06]
+ [ 2.91385167e+06]
  [ 2.91364661e+06]
- [ 2.91372115e+06]
- [ 2.91280513e+06]
- [ 2.91282308e+06]
- [ 2.91284080e+06]
- [ 2.91740550e+06]
- [ 2.91825478e+06]
- [ 2.91901044e+06]
- [ 2.91773224e+06]
- [ 2.91885864e+06]
- [ 2.91974676e+06]
- [ 2.91380089e+06]
- [ 2.91398635e+06]
- [ 2.91411842e+06]
- [ 2.91357184e+06]
- [ 2.91338505e+06]
- [ 1.15260341e+03]]</t>
+ [ 2.91372116e+06]
+ [ 2.91280514e+06]
+ [ 2.91282309e+06]
+ [ 2.91284081e+06]
+ [ 2.91740533e+06]
+ [ 2.91825460e+06]
+ [ 2.91901027e+06]
+ [ 2.91773156e+06]
+ [ 2.91885795e+06]
+ [ 2.91974607e+06]
+ [ 2.91380061e+06]
+ [ 2.91398656e+06]
+ [ 2.91411913e+06]
+ [ 2.91357282e+06]
+ [ 2.91338553e+06]
+ [ 1.15259839e+03]]</t>
         </is>
       </c>
       <c r="E528" t="inlineStr"/>
@@ -13718,36 +13717,36 @@
       </c>
       <c r="D529" t="inlineStr">
         <is>
-          <t>[[   97.56346672]
- [ -138.19791652]
- [-1541.51564527]
- [-3355.14856935]
- [-3355.13682798]
- [-3355.10868488]
- [-3355.0644332 ]
- [-3355.00076279]
- [-3354.91630765]
- [-3354.96879995]
- [-3354.93734834]
- [-3354.90142132]
- [-3354.89053931]
- [-3354.88817354]
- [-3354.85606245]
- [-3354.96315203]
- [-3354.95441333]
- [-3354.94543196]
- [-3354.05773017]
- [-3353.47980813]
- [-3352.81166313]
- [-3352.47462036]
- [-3350.66392756]
- [-3348.58612679]
- [-3353.0675483 ]
- [-3352.14917283]
- [-3351.17265532]
- [-3351.41405087]
- [-3350.68969622]
- [    4.3347964 ]]</t>
+          <t>[[   97.6095452 ]
+ [ -138.07717053]
+ [-1541.38477072]
+ [-3355.14858107]
+ [-3355.13684313]
+ [-3355.10870355]
+ [-3355.06445306]
+ [-3355.00078646]
+ [-3354.91633536]
+ [-3354.96881349]
+ [-3354.93736304]
+ [-3354.90143725]
+ [-3354.89055396]
+ [-3354.88818721]
+ [-3354.85607694]
+ [-3354.96315789]
+ [-3354.95441939]
+ [-3354.94543823]
+ [-3354.05780864]
+ [-3353.47989759]
+ [-3352.81176357]
+ [-3352.47491076]
+ [-3350.6642384 ]
+ [-3348.5864579 ]
+ [-3353.06785386]
+ [-3352.14929626]
+ [-3351.17293521]
+ [-3351.41453446]
+ [-3350.69267432]
+ [    4.32999982]]</t>
         </is>
       </c>
       <c r="E529" t="inlineStr"/>
@@ -13770,36 +13769,36 @@
       </c>
       <c r="D530" t="inlineStr">
         <is>
-          <t>[[ 4.06992608e+03]
- [ 1.16102219e+04]
- [ 3.58862498e+03]
- [-1.62857633e+04]
- [-3.86651467e+04]
- [-6.10384217e+04]
- [-8.34033900e+04]
- [-1.05757265e+05]
- [-1.28098961e+05]
- [-1.39265464e+05]
- [-1.50428414e+05]
- [-1.61587841e+05]
- [-1.72743820e+05]
- [-1.83895927e+05]
- [-1.95044114e+05]
- [-2.00616986e+05]
- [-2.06188804e+05]
- [-2.11759580e+05]
- [-2.52064221e+05]
- [-2.92296418e+05]
- [-3.32471233e+05]
- [-3.89685571e+05]
- [-4.46602855e+05]
- [-5.03302052e+05]
- [-5.37182851e+05]
- [-5.70747795e+05]
- [-6.04010723e+05]
- [-6.34723492e+05]
- [-6.64879366e+05]
- [-1.09493921e-04]]</t>
+          <t>[[ 4.07025725e+03]
+ [ 1.16121723e+04]
+ [ 3.59274128e+03]
+ [-1.62811335e+04]
+ [-3.86605199e+04]
+ [-6.10337982e+04]
+ [-8.33987704e+04]
+ [-1.05752650e+05]
+ [-1.28094350e+05]
+ [-1.39260856e+05]
+ [-1.50423808e+05]
+ [-1.61583238e+05]
+ [-1.72739220e+05]
+ [-1.83891329e+05]
+ [-1.95039519e+05]
+ [-2.00612393e+05]
+ [-2.06184213e+05]
+ [-2.11754990e+05]
+ [-2.52059644e+05]
+ [-2.92291852e+05]
+ [-3.32466675e+05]
+ [-3.89680998e+05]
+ [-4.46598201e+05]
+ [-5.03297241e+05]
+ [-5.37177927e+05]
+ [-5.70742930e+05]
+ [-6.04006444e+05]
+ [-6.34720678e+05]
+ [-6.64879271e+05]
+ [-1.09326310e-04]]</t>
         </is>
       </c>
       <c r="E530" t="inlineStr"/>
@@ -13822,36 +13821,36 @@
       </c>
       <c r="D531" t="inlineStr">
         <is>
-          <t>[[ 6.44498000e+07]
- [ 2.84041228e+08]
- [ 5.31708692e+08]
- [ 5.76399901e+08]
- [ 5.56578531e+08]
- [ 5.36708148e+08]
- [ 5.16797288e+08]
- [ 4.96851064e+08]
- [ 4.76883129e+08]
- [ 4.66900581e+08]
- [ 4.56915336e+08]
- [ 4.46929080e+08]
- [ 4.36943077e+08]
- [ 4.26956302e+08]
- [ 4.16968660e+08]
- [ 4.11976230e+08]
- [ 4.06983629e+08]
- [ 4.01990994e+08]
- [ 3.65794972e+08]
- [ 3.29588952e+08]
- [ 2.93426360e+08]
- [ 2.41785290e+08]
- [ 1.90102113e+08]
- [ 1.38498648e+08]
- [ 1.07612802e+08]
- [ 7.66934826e+07]
- [ 4.57670358e+07]
- [ 1.69106498e+07]
- [-1.19313746e+07]
- [ 2.91137928e-02]]</t>
+          <t>[[ 6.44478632e+07]
+ [ 2.84037625e+08]
+ [ 5.31707512e+08]
+ [ 5.76400005e+08]
+ [ 5.56578639e+08]
+ [ 5.36708260e+08]
+ [ 5.16797405e+08]
+ [ 4.96851186e+08]
+ [ 4.76883257e+08]
+ [ 4.66900712e+08]
+ [ 4.56915470e+08]
+ [ 4.46929217e+08]
+ [ 4.36943219e+08]
+ [ 4.26956448e+08]
+ [ 4.16968810e+08]
+ [ 4.11976382e+08]
+ [ 4.06983784e+08]
+ [ 4.01991152e+08]
+ [ 3.65795148e+08]
+ [ 3.29589140e+08]
+ [ 2.93426554e+08]
+ [ 2.41785463e+08]
+ [ 1.90102203e+08]
+ [ 1.38498602e+08]
+ [ 1.07612652e+08]
+ [ 7.66932583e+07]
+ [ 4.57668125e+07]
+ [ 1.69105131e+07]
+ [-1.19313748e+07]
+ [ 2.91010751e-02]]</t>
         </is>
       </c>
       <c r="E531" t="inlineStr"/>
@@ -13874,36 +13873,36 @@
       </c>
       <c r="D532" t="inlineStr">
         <is>
-          <t>[[1.18264376e+06]
- [2.52762818e+06]
- [4.21959777e+06]
- [6.49026835e+06]
- [6.49022516e+06]
- [6.49018183e+06]
- [6.49021990e+06]
- [6.49017543e+06]
- [6.49013013e+06]
- [6.49015300e+06]
- [6.49012874e+06]
- [6.49010391e+06]
- [6.49012375e+06]
- [6.49010013e+06]
- [6.49007926e+06]
- [6.49010044e+06]
- [6.49009000e+06]
- [6.49007957e+06]
- [6.49017864e+06]
- [6.49010292e+06]
- [6.49002705e+06]
- [6.49035851e+06]
- [6.49024944e+06]
- [6.49014030e+06]
- [6.49091741e+06]
- [6.49085070e+06]
- [6.49078388e+06]
- [6.49109274e+06]
- [6.49127148e+06]
- [2.77528204e-09]]</t>
+          <t>[[1182633.61390832]
+ [2527611.25226837]
+ [4219581.91180333]
+ [6490268.34785137]
+ [6490225.15694367]
+ [6490181.8254011 ]
+ [6490219.89300864]
+ [6490175.42928526]
+ [6490130.12557227]
+ [6490152.99254337]
+ [6490128.73649536]
+ [6490103.90069595]
+ [6490123.73937306]
+ [6490100.12201343]
+ [6490079.25348578]
+ [6490100.42167482]
+ [6490089.9873942 ]
+ [6490079.55314714]
+ [6490178.64691903]
+ [6490102.93139406]
+ [6490027.05495158]
+ [6490358.61454287]
+ [6490249.54957278]
+ [6490140.4096327 ]
+ [6490917.80772912]
+ [6490850.68651486]
+ [6490783.48351621]
+ [6491091.6294719 ]
+ [6491270.62281838]
+ [      0.        ]]</t>
         </is>
       </c>
       <c r="E532" t="inlineStr"/>
@@ -13926,24 +13925,24 @@
       </c>
       <c r="D533" t="inlineStr">
         <is>
-          <t>[[-9297393.18489439]
- [17076589.91988929]
- [46748243.26623932]
- [30015653.88344531]
- [29239728.7448152 ]
- [28464217.6782363 ]
- [31443618.65858206]
- [30500418.24661892]
- [29570434.61188357]
- [32888809.3508211 ]
- [32344204.57418818]
- [31808014.83433491]
- [33940267.85789619]
- [33272871.99685149]
- [32605396.06150207]
- [34978106.79259904]
- [34605459.72574592]
- [34232809.26488746]]</t>
+          <t>[[-9297431.53801132]
+ [17077105.62480478]
+ [46749886.36215097]
+ [30016457.62956232]
+ [29240508.00182133]
+ [28464972.50610757]
+ [31444560.19388324]
+ [30501327.09625965]
+ [29571311.12166029]
+ [32889665.92066424]
+ [32345046.13530128]
+ [31808841.57280865]
+ [33941077.88117694]
+ [33273666.79409286]
+ [32606175.65489598]
+ [34978618.10029493]
+ [34605967.51336149]
+ [34233313.54432474]]</t>
         </is>
       </c>
       <c r="E533" t="inlineStr"/>
@@ -13966,24 +13965,24 @@
       </c>
       <c r="D534" t="inlineStr">
         <is>
-          <t>[[3125777.33692485]
- [7335688.06396877]
- [7056644.70112161]
- [1019899.87455797]
- [1020016.61003111]
- [1020132.36376851]
- [1168109.15971214]
- [1168246.86669331]
- [1168392.58842594]
- [1327128.66983173]
- [1327177.33535049]
- [1327230.05292646]
- [1446777.48584813]
- [1446695.67294332]
- [1446724.05523314]
- [1572132.01486867]
- [1572139.17446413]
- [1572146.24091089]]</t>
+          <t>[[3125813.69059654]
+ [7335878.40762638]
+ [7056921.97056688]
+ [1019920.30044006]
+ [1020037.03831057]
+ [1020152.79448627]
+ [1168136.68493192]
+ [1168274.39561795]
+ [1168420.12151769]
+ [1327154.81905977]
+ [1327203.48594993]
+ [1327256.20507364]
+ [1446802.67982015]
+ [1446720.86321333]
+ [1446749.24600046]
+ [1572144.15486427]
+ [1572151.31451929]
+ [1572158.38101927]]</t>
         </is>
       </c>
       <c r="E534" t="inlineStr"/>
@@ -14008,17 +14007,17 @@
         <is>
           <t>[[       -0.        ]
  [       -0.        ]
- [-11911618.36032194]
- [-12138215.79141955]
- [-10432739.15988834]
- [ -8739896.45447971]
- [ -8127379.20884584]
- [ -6218636.7367492 ]
- [ -4339098.37776324]
- [ -3366542.26445022]
- [ -2329964.42276104]
- [ -1310222.82257789]
- [  -439834.49237721]
+ [-11911981.71130474]
+ [-12138468.63353898]
+ [-10432956.47650576]
+ [ -8740078.50875989]
+ [ -8127577.40694188]
+ [ -6218788.38738533]
+ [ -4339204.19310494]
+ [ -3366610.61716441]
+ [ -2330011.72926562]
+ [ -1310249.42471985]
+ [  -439842.36431289]
  [       -0.        ]
  [       -0.        ]
  [       -0.        ]
@@ -14082,24 +14081,24 @@
       <c r="C537" t="inlineStr"/>
       <c r="D537" t="inlineStr">
         <is>
-          <t>[[0.05472983]
- [0.10827535]
- [0.28017638]
- [0.19140297]
- [0.18142512]
- [0.17164192]
- [0.18442607]
- [0.17345794]
- [0.16291313]
- [0.17687786]
- [0.17116844]
- [0.16565264]
- [0.17424908]
- [0.16973694]
- [0.16635133]
- [0.17847047]
- [0.17658062]
- [0.17469087]]</t>
+          <t>[[0.05473016]
+ [0.10827846]
+ [0.2801861 ]
+ [0.19140783]
+ [0.18142973]
+ [0.1716463 ]
+ [0.18443144]
+ [0.17346299]
+ [0.16291789]
+ [0.1768824 ]
+ [0.17117285]
+ [0.16565692]
+ [0.17425322]
+ [0.16974099]
+ [0.1663553 ]
+ [0.17847307]
+ [0.1765832 ]
+ [0.17469343]]</t>
         </is>
       </c>
       <c r="E537" t="inlineStr"/>
@@ -14118,24 +14117,24 @@
       <c r="C538" t="inlineStr"/>
       <c r="D538" t="inlineStr">
         <is>
-          <t>[[0.07213953]
- [0.08663556]
- [0.1573889 ]
- [0.04852287]
- [0.04261181]
- [0.03687325]
- [0.04016736]
- [0.03357525]
- [0.02765491]
- [0.0248088 ]
- [0.02353985]
- [0.0226106 ]
- [0.02468874]
- [0.02407239]
- [0.02320983]
- [0.02447333]
- [0.02404766]
- [0.02362323]]</t>
+          <t>[[0.07214055]
+ [0.0866377 ]
+ [0.15739816]
+ [0.04852432]
+ [0.04261304]
+ [0.03687424]
+ [0.04016874]
+ [0.03357625]
+ [0.02765553]
+ [0.02480883]
+ [0.0235398 ]
+ [0.02261049]
+ [0.02468853]
+ [0.02407217]
+ [0.0232096 ]
+ [0.02447275]
+ [0.02404708]
+ [0.02362266]]</t>
         </is>
       </c>
       <c r="E538" t="inlineStr"/>
@@ -14154,24 +14153,24 @@
       <c r="C539" t="inlineStr"/>
       <c r="D539" t="inlineStr">
         <is>
-          <t>[[0.11975488]
- [0.22818175]
- [0.35055376]
- [0.20574539]
- [0.19721706]
- [0.18866503]
- [0.20592395]
- [0.19644109]
- [0.18688291]
- [0.20653996]
- [0.20122356]
- [0.19586444]
- [0.20762783]
- [0.20225447]
- [0.19688407]
- [0.21086037]
- [0.20800497]
- [0.20515046]]</t>
+          <t>[[0.11975522]
+ [0.22818473]
+ [0.3505619 ]
+ [0.2057486 ]
+ [0.19722014]
+ [0.18866798]
+ [0.20592791]
+ [0.19644488]
+ [0.18688653]
+ [0.20654319]
+ [0.20122671]
+ [0.19586749]
+ [0.2076306 ]
+ [0.20225716]
+ [0.1968867 ]
+ [0.21086116]
+ [0.20800574]
+ [0.2051512 ]]</t>
         </is>
       </c>
       <c r="E539" t="inlineStr"/>
@@ -14194,36 +14193,36 @@
       </c>
       <c r="D540" t="inlineStr">
         <is>
-          <t>[[-9.29739318e+06]
- [ 1.70765899e+07]
- [ 4.67482433e+07]
- [ 3.00156539e+07]
- [ 2.92397287e+07]
- [ 2.84642177e+07]
- [ 3.14436187e+07]
- [ 3.05004182e+07]
- [ 2.95704346e+07]
- [ 3.28888094e+07]
- [ 3.23442046e+07]
- [ 3.18080148e+07]
- [ 3.39402679e+07]
- [ 3.32728720e+07]
- [ 3.26053961e+07]
- [ 3.49781068e+07]
- [ 3.46054597e+07]
- [ 3.42328093e+07]
- [ 3.99183778e+07]
- [ 3.62560137e+07]
- [ 3.25996076e+07]
- [ 5.49670442e+07]
- [ 4.27897561e+07]
- [ 3.06343006e+07]
- [ 6.67327975e+07]
- [ 4.39373682e+07]
- [ 2.11079168e+07]
- [ 6.89861917e+05]
- [-2.20338531e+06]
- [ 6.22497619e-02]]</t>
+          <t>[[-9.29743154e+06]
+ [ 1.70771056e+07]
+ [ 4.67498864e+07]
+ [ 3.00164576e+07]
+ [ 2.92405080e+07]
+ [ 2.84649725e+07]
+ [ 3.14445602e+07]
+ [ 3.05013271e+07]
+ [ 2.95713111e+07]
+ [ 3.28896659e+07]
+ [ 3.23450461e+07]
+ [ 3.18088416e+07]
+ [ 3.39410779e+07]
+ [ 3.32736668e+07]
+ [ 3.26061757e+07]
+ [ 3.49786181e+07]
+ [ 3.46059675e+07]
+ [ 3.42333135e+07]
+ [ 3.99207476e+07]
+ [ 3.62581428e+07]
+ [ 3.26014956e+07]
+ [ 5.49763103e+07]
+ [ 4.27967536e+07]
+ [ 3.06390193e+07]
+ [ 6.67336063e+07]
+ [ 4.39037970e+07]
+ [ 2.10701121e+07]
+ [ 6.72830421e+05]
+ [-2.21301221e+06]
+ [ 6.21967813e-02]]</t>
         </is>
       </c>
       <c r="E540" t="inlineStr"/>
@@ -14246,36 +14245,36 @@
       </c>
       <c r="D541" t="inlineStr">
         <is>
-          <t>[[3.12577734e+06]
- [7.33568806e+06]
- [7.05664470e+06]
- [1.01989987e+06]
- [1.02001661e+06]
- [1.02013236e+06]
- [1.16810916e+06]
- [1.16824687e+06]
- [1.16839259e+06]
- [1.32712867e+06]
- [1.32717734e+06]
- [1.32723005e+06]
- [1.44677749e+06]
- [1.44669567e+06]
- [1.44672406e+06]
- [1.57213201e+06]
- [1.57213917e+06]
- [1.57214624e+06]
- [2.00231081e+06]
- [2.00276915e+06]
- [2.00317643e+06]
- [4.17086870e+06]
- [4.17213710e+06]
- [4.17313418e+06]
- [1.22620444e+07]
- [1.22673692e+07]
- [1.22725185e+07]
- [1.65489130e+07]
- [1.99931669e+07]
- [7.20304935e+03]]</t>
+          <t>[[3.12581369e+06]
+ [7.33587841e+06]
+ [7.05692197e+06]
+ [1.01992030e+06]
+ [1.02003704e+06]
+ [1.02015279e+06]
+ [1.16813668e+06]
+ [1.16827440e+06]
+ [1.16842012e+06]
+ [1.32715482e+06]
+ [1.32720349e+06]
+ [1.32725621e+06]
+ [1.44680268e+06]
+ [1.44672086e+06]
+ [1.44674925e+06]
+ [1.57214415e+06]
+ [1.57215131e+06]
+ [1.57215838e+06]
+ [2.00241857e+06]
+ [2.00287693e+06]
+ [2.00328424e+06]
+ [4.17156870e+06]
+ [4.17283732e+06]
+ [4.17383456e+06]
+ [1.22644914e+07]
+ [1.22650899e+07]
+ [1.22655093e+07]
+ [1.65327712e+07]
+ [1.99795804e+07]
+ [7.20176323e+03]]</t>
         </is>
       </c>
       <c r="E541" t="inlineStr"/>
@@ -14300,34 +14299,34 @@
         <is>
           <t>[[-0.00000000e+00]
  [-0.00000000e+00]
- [-1.19116184e+07]
- [-1.21382158e+07]
- [-1.04327392e+07]
- [-8.73989645e+06]
- [-8.12737921e+06]
- [-6.21863674e+06]
- [-4.33909838e+06]
- [-3.36654226e+06]
- [-2.32996442e+06]
- [-1.31022282e+06]
- [-4.39834492e+05]
+ [-1.19119817e+07]
+ [-1.21384686e+07]
+ [-1.04329565e+07]
+ [-8.74007851e+06]
+ [-8.12757741e+06]
+ [-6.21878839e+06]
+ [-4.33920419e+06]
+ [-3.36661062e+06]
+ [-2.33001173e+06]
+ [-1.31024942e+06]
+ [-4.39842364e+05]
  [-0.00000000e+00]
  [-0.00000000e+00]
  [-0.00000000e+00]
  [-0.00000000e+00]
- [-2.65544478e+03]
- [-7.30967680e+03]
- [-8.18881656e+03]
- [-8.83583289e+03]
- [-1.98871943e+04]
- [-2.11495535e+04]
- [-2.22080943e+04]
- [-6.79743324e+04]
- [-6.94618801e+04]
- [-7.08510745e+04]
- [-8.35653666e+04]
- [-7.27963264e+04]
- [-6.15915025e+04]]</t>
+ [-2.65546581e+03]
+ [-7.31007843e+03]
+ [-8.18926650e+03]
+ [-8.83631838e+03]
+ [-1.98905675e+04]
+ [-2.11531407e+04]
+ [-2.22118612e+04]
+ [-6.80119882e+04]
+ [-6.95226475e+04]
+ [-7.09358051e+04]
+ [-8.36427002e+04]
+ [-7.28449305e+04]
+ [-6.16104015e+04]]</t>
         </is>
       </c>
       <c r="E542" t="inlineStr"/>
@@ -14398,36 +14397,36 @@
       <c r="C544" t="inlineStr"/>
       <c r="D544" t="inlineStr">
         <is>
-          <t>[[5.47298302e-02]
- [1.08275351e-01]
- [2.80176378e-01]
- [1.91402972e-01]
- [1.81425115e-01]
- [1.71641919e-01]
- [1.84426070e-01]
- [1.73457936e-01]
- [1.62913134e-01]
- [1.76877857e-01]
- [1.71168441e-01]
- [1.65652636e-01]
- [1.74249078e-01]
- [1.69736944e-01]
- [1.66351325e-01]
- [1.78470471e-01]
- [1.76580616e-01]
- [1.74697602e-01]
- [2.03846508e-01]
- [1.85295751e-01]
- [1.66791731e-01]
- [2.82069694e-01]
- [2.20804904e-01]
- [1.60169379e-01]
- [3.56409476e-01]
- [2.48429696e-01]
- [1.52514458e-01]
- [1.45858232e-01]
- [1.76501996e-01]
- [3.19676619e-04]]</t>
+          <t>[[5.47301600e-02]
+ [1.08278456e-01]
+ [2.80186103e-01]
+ [1.91407830e-01]
+ [1.81429730e-01]
+ [1.71646295e-01]
+ [1.84431438e-01]
+ [1.73462993e-01]
+ [1.62917890e-01]
+ [1.76882403e-01]
+ [1.71172852e-01]
+ [1.65656917e-01]
+ [1.74253224e-01]
+ [1.69740992e-01]
+ [1.66355296e-01]
+ [1.78473072e-01]
+ [1.76583199e-01]
+ [1.74700168e-01]
+ [2.03858601e-01]
+ [1.85306624e-01]
+ [1.66801383e-01]
+ [2.82117241e-01]
+ [2.20841039e-01]
+ [1.60194168e-01]
+ [3.56420024e-01]
+ [2.48267339e-01]
+ [1.52335233e-01]
+ [1.45713874e-01]
+ [1.76385582e-01]
+ [3.19768595e-04]]</t>
         </is>
       </c>
       <c r="E544" t="inlineStr"/>
@@ -14446,36 +14445,36 @@
       <c r="C545" t="inlineStr"/>
       <c r="D545" t="inlineStr">
         <is>
-          <t>[[0.07213953]
- [0.08663556]
- [0.1573889 ]
- [0.04852287]
- [0.04261181]
- [0.03687325]
- [0.04016736]
- [0.03357525]
- [0.02765491]
- [0.0248088 ]
- [0.02353985]
- [0.0226106 ]
- [0.02468874]
- [0.02407239]
- [0.02320983]
- [0.02447333]
- [0.02404766]
- [0.02361941]
- [0.03231648]
- [0.0290524 ]
- [0.02588641]
- [0.08946863]
- [0.08303733]
- [0.07681757]
- [0.64027086]
- [0.62832641]
- [0.61637102]
- [0.97838626]
+          <t>[[0.07214055]
+ [0.0866377 ]
+ [0.15739816]
+ [0.04852432]
+ [0.04261304]
+ [0.03687424]
+ [0.04016874]
+ [0.03357625]
+ [0.02765553]
+ [0.02480883]
+ [0.0235398 ]
+ [0.02261049]
+ [0.02468853]
+ [0.02407217]
+ [0.0232096 ]
+ [0.02447275]
+ [0.02404708]
+ [0.02361883]
+ [0.03231817]
+ [0.02905405]
+ [0.02588803]
+ [0.08949667]
+ [0.08306464]
+ [0.07684406]
+ [0.64083797]
+ [0.62884604]
+ [0.61683701]
+ [0.9783858 ]
  [1.        ]
- [0.01040773]]</t>
+ [0.01041309]]</t>
         </is>
       </c>
       <c r="E545" t="inlineStr"/>
@@ -14494,36 +14493,36 @@
       <c r="C546" t="inlineStr"/>
       <c r="D546" t="inlineStr">
         <is>
-          <t>[[2.92281705e-01]
- [3.19882987e-01]
- [3.51432746e-01]
- [1.88072968e-01]
- [1.76981829e-01]
- [1.65848905e-01]
- [1.78345928e-01]
- [1.66597837e-01]
- [1.54620507e-01]
- [1.69430577e-01]
- [1.62963830e-01]
- [1.56358979e-01]
- [1.64216962e-01]
- [1.58495009e-01]
- [1.52781171e-01]
- [1.63241472e-01]
- [1.60326358e-01]
- [1.57413456e-01]
- [1.72883620e-01]
- [1.50363421e-01]
- [1.27985536e-01]
- [2.27550912e-01]
- [1.84943944e-01]
- [1.42946748e-01]
- [3.86588781e-01]
- [3.35330318e-01]
- [2.84716401e-01]
- [3.68193658e-01]
- [5.49853337e-01]
- [8.20297320e-11]]</t>
+          <t>[[3.39465148e-01]
+ [5.25857922e-01]
+ [7.33275790e-01]
+ [4.02691947e-01]
+ [3.82979556e-01]
+ [3.63301889e-01]
+ [3.96056030e-01]
+ [3.74607579e-01]
+ [3.53007600e-01]
+ [3.90594495e-01]
+ [3.78666450e-01]
+ [3.66616770e-01]
+ [3.88399359e-01]
+ [3.76934317e-01]
+ [3.65509318e-01]
+ [3.92165685e-01]
+ [3.86157043e-01]
+ [3.80159316e-01]
+ [4.30510844e-01]
+ [3.80131790e-01]
+ [3.30484666e-01]
+ [5.85751685e-01]
+ [4.62423732e-01]
+ [3.42167342e-01]
+ [8.94636728e-01]
+ [6.93509262e-01]
+ [4.96018337e-01]
+ [4.88044692e-01]
+ [6.83895020e-01]
+ [4.04472381e-10]]</t>
         </is>
       </c>
       <c r="E546" t="inlineStr"/>
@@ -14654,9 +14653,9 @@
       </c>
       <c r="D551" t="inlineStr">
         <is>
-          <t>[ 927.9981594  1070.12742488 1170.96499655 1251.15492823 1344.74637367
- 1422.65663272 1490.05546077 1526.163267   1559.93750745 1591.70482277
- 1386.26296244 1188.54660831  992.7821857 ]</t>
+          <t>[ 927.99815941 1070.12742489 1170.96499657 1251.15492825 1344.74637369
+ 1422.65663273 1490.05546078 1526.70959183 1561.06149957 1593.43543744
+ 1387.34045863 1189.05983894  992.78218559]</t>
         </is>
       </c>
       <c r="E551" t="inlineStr"/>
@@ -14775,9 +14774,9 @@
       </c>
       <c r="D556" t="inlineStr">
         <is>
-          <t>[ 927.9981594  1070.12742488 1170.96499655 1251.15492823 1344.74637367
- 1422.65663272 1490.05546077 1526.163267   1559.93750745 1591.70482277
- 1386.26296244 1188.54660831  992.7821857 ]</t>
+          <t>[ 927.99815941 1070.12742489 1170.96499657 1251.15492825 1344.74637369
+ 1422.65663273 1490.05546078 1526.70959183 1561.06149957 1593.43543744
+ 1387.34045863 1189.05983894  992.78218559]</t>
         </is>
       </c>
       <c r="E556" t="inlineStr"/>
@@ -14965,10 +14964,10 @@
       </c>
       <c r="D564" t="inlineStr">
         <is>
-          <t>[ -927.9981594  -1070.12742488 -1170.96499655 -1251.15492823
- -1344.74637367 -1422.65663272 -1490.05546077 -1526.163267
- -1559.93750745 -1591.70482277 -1386.26296244 -1188.54660831
-  -992.7821857 ]</t>
+          <t>[ -927.99815941 -1070.12742489 -1170.96499657 -1251.15492825
+ -1344.74637369 -1422.65663273 -1490.05546078 -1526.70959183
+ -1561.06149957 -1593.43543744 -1387.34045863 -1189.05983894
+  -992.78218559]</t>
         </is>
       </c>
       <c r="E564" t="inlineStr"/>
@@ -15012,7 +15011,7 @@
       <c r="C566" t="inlineStr"/>
       <c r="D566" t="inlineStr">
         <is>
-          <t>[103.47574598 216.66330373 639.26578098 634.57662002]</t>
+          <t>[103.48137653 216.69988332 639.82415579 634.9996412 ]</t>
         </is>
       </c>
       <c r="E566" t="inlineStr"/>
@@ -15031,7 +15030,7 @@
       <c r="C567" t="inlineStr"/>
       <c r="D567" t="inlineStr">
         <is>
-          <t>[1.         1.         0.99903992 0.6005766 ]</t>
+          <t>[1.  1.  1.  0.6]</t>
         </is>
       </c>
       <c r="E567" t="inlineStr"/>
@@ -15050,7 +15049,7 @@
       <c r="C568" t="inlineStr"/>
       <c r="D568" t="inlineStr">
         <is>
-          <t>[1.         1.         0.99903992 0.6005766 ]</t>
+          <t>[1.  1.  1.  0.6]</t>
         </is>
       </c>
       <c r="E568" t="inlineStr"/>
@@ -15069,7 +15068,7 @@
       <c r="C569" t="inlineStr"/>
       <c r="D569" t="inlineStr">
         <is>
-          <t>[0.47758778 0.33876254 0.80581478]</t>
+          <t>[0.47753314 0.33868662 0.80607813]</t>
         </is>
       </c>
       <c r="E569" t="inlineStr"/>
@@ -15113,7 +15112,7 @@
       <c r="D571" t="inlineStr">
         <is>
           <t>[5.         5.         5.         5.         5.         5.
- 5.         4.99839987 4.99679973 4.9951996  4.33013307 3.66506653
+ 5.         5.         5.         5.         4.33333333 3.66666667
  3.        ]</t>
         </is>
       </c>
@@ -15366,7 +15365,7 @@
       <c r="D582" t="inlineStr">
         <is>
           <t>[10.         10.         10.         10.         10.         10.
- 10.          9.99679973  9.99359947  9.9903992   8.66026614  7.33013307
+ 10.         10.         10.         10.          8.66666667  7.33333333
   6.        ]</t>
         </is>
       </c>
@@ -15620,7 +15619,7 @@
       </c>
       <c r="D593" t="inlineStr">
         <is>
-          <t>[25094.13381402 12045.74831559  4091.19181049  2637.04707363]</t>
+          <t>[25092.78173319 12043.72438368  4091.55429016  2638.45857142]</t>
         </is>
       </c>
       <c r="E593" t="inlineStr">
@@ -15647,7 +15646,7 @@
       </c>
       <c r="D594" t="inlineStr">
         <is>
-          <t>[307672.45850549 149188.35342676  50931.21891861  21004.76124305]</t>
+          <t>[307656.20450195 149163.51915476  50984.8082281   21041.29238223]</t>
         </is>
       </c>
       <c r="E594" t="inlineStr">
@@ -15674,7 +15673,7 @@
       </c>
       <c r="D595" t="inlineStr">
         <is>
-          <t>[307672.45850549 149188.35342676  50931.21891861  21004.76124305]</t>
+          <t>[307656.20450195 149163.51915476  50984.8082281   21041.29238223]</t>
         </is>
       </c>
       <c r="E595" t="inlineStr">
@@ -15701,7 +15700,7 @@
       </c>
       <c r="D596" t="inlineStr">
         <is>
-          <t>[7.37293215e+12 3.57508635e+12 1.22049410e+12 5.03349179e+11]</t>
+          <t>[7.37254264e+12 3.57449123e+12 1.22177829e+12 5.04224596e+11]</t>
         </is>
       </c>
       <c r="E596" t="inlineStr">
@@ -15728,7 +15727,7 @@
       </c>
       <c r="D597" t="inlineStr">
         <is>
-          <t>[7.37293215e+12 3.57508635e+12 1.22049410e+12 5.03349179e+11]</t>
+          <t>[7.37254264e+12 3.57449123e+12 1.22177829e+12 5.04224596e+11]</t>
         </is>
       </c>
       <c r="E597" t="inlineStr">
@@ -15755,7 +15754,7 @@
       </c>
       <c r="D598" t="inlineStr">
         <is>
-          <t>[5.84673519e+12 2.83504348e+12 9.67851824e+11 3.99155899e+11]</t>
+          <t>[5.84642632e+12 2.83457155e+12 9.68870188e+11 3.99850104e+11]</t>
         </is>
       </c>
       <c r="E598" t="inlineStr">
@@ -15782,7 +15781,7 @@
       </c>
       <c r="D599" t="inlineStr">
         <is>
-          <t>[6.01345167e+11 2.88659198e+11 9.80395833e+10 6.31930763e+10]</t>
+          <t>[6.01312766e+11 2.88610697e+11 9.80482696e+10 6.32269008e+10]</t>
         </is>
       </c>
       <c r="E599" t="inlineStr">
@@ -15890,10 +15889,10 @@
       </c>
       <c r="D603" t="inlineStr">
         <is>
-          <t>[[0.         0.         0.33258769 0.13563125 0.13563125 0.        ]
- [0.         0.         0.69285857 0.27971352 0.27971352 0.        ]
- [0.         0.         2.03999235 0.81894698 0.81894698 0.        ]
- [0.         0.         3.16490368 1.58840025 1.58840025 0.        ]]</t>
+          <t>[[0.         0.         0.33260561 0.13563842 0.13563842 0.        ]
+ [0.         0.         0.69297501 0.27976009 0.27976009 0.        ]
+ [0.         0.         2.03981162 0.8184791  0.8184791  0.        ]
+ [0.         0.         3.16321055 1.58659456 1.58659456 0.        ]]</t>
         </is>
       </c>
       <c r="E603" t="inlineStr"/>
@@ -15916,10 +15915,10 @@
       </c>
       <c r="D604" t="inlineStr">
         <is>
-          <t>[[0.54533665 0.54533665 0.         0.         0.         0.06781562]
- [1.13873697 1.13873697 0.         0.         0.         0.13985676]
- [3.35739673 3.35739673 0.         0.         0.         0.40947349]
- [5.20873661 5.20873661 0.         0.         0.         0.79420012]]</t>
+          <t>[[0.54536617 0.54536617 0.         0.         0.         0.06781921]
+ [1.13892874 1.13892874 0.         0.         0.         0.13988005]
+ [3.35710132 3.35710132 0.         0.         0.         0.40923955]
+ [5.20595251 5.20595251 0.         0.         0.         0.79329728]]</t>
         </is>
       </c>
       <c r="E604" t="inlineStr"/>
@@ -15942,7 +15941,7 @@
       </c>
       <c r="D605" t="inlineStr">
         <is>
-          <t>[675.06664115]</t>
+          <t>[675.05958502]</t>
         </is>
       </c>
       <c r="E605" t="inlineStr"/>
@@ -15965,7 +15964,7 @@
       </c>
       <c r="D606" t="inlineStr">
         <is>
-          <t>[4437866.28983402]</t>
+          <t>[4437767.48964604]</t>
         </is>
       </c>
       <c r="E606" t="inlineStr"/>
@@ -15989,7 +15988,7 @@
       <c r="D607" t="inlineStr">
         <is>
           <t>[10.         10.         10.         10.         10.         10.
-  9.99839987  9.9951996   9.99199934  9.32533267  7.9951996   6.66506653]</t>
+ 10.         10.         10.          9.33333333  8.          6.66666667]</t>
         </is>
       </c>
       <c r="E607" t="inlineStr"/>
@@ -16012,8 +16011,8 @@
       </c>
       <c r="D608" t="inlineStr">
         <is>
-          <t>[0.10340587 0.10340587 0.10340587 0.04938538 0.04938538 0.04938538
- 0.01672992 0.01672992 0.01672992 0.01348121 0.01348121 0.01348121]</t>
+          <t>[0.10340025 0.10340025 0.10340025 0.04937705 0.04937705 0.04937705
+ 0.01672334 0.01672334 0.01672334 0.01348032 0.01348032 0.01348032]</t>
         </is>
       </c>
       <c r="E608" t="inlineStr"/>
@@ -16060,18 +16059,18 @@
       </c>
       <c r="D610" t="inlineStr">
         <is>
-          <t>[[42996717.35986321]
- [39438832.01611765]
- [35870789.85017309]
- [61924797.44590283]
- [49922852.15900049]
- [37908474.75553515]
- [88204415.81448972]
- [65586713.3829805 ]
- [42912317.34421694]
- [31882660.75234671]
- [ 4992767.0688483 ]
- [ 2449964.33576253]]</t>
+          <t>[[42999171.19844921]
+ [39441048.71523987]
+ [35872768.62438796]
+ [61935049.67126539]
+ [49930865.3107342 ]
+ [37914236.2334159 ]
+ [88206261.20897442]
+ [65540337.69304017]
+ [42847691.27200853]
+ [31813672.15893507]
+ [ 4974526.70872524]
+ [ 2443364.39754025]]</t>
         </is>
       </c>
       <c r="E610" t="inlineStr"/>
@@ -16094,18 +16093,18 @@
       </c>
       <c r="D611" t="inlineStr">
         <is>
-          <t>[[ 1999623.82238322]
- [ 2000104.83693195]
- [ 2000542.09359723]
- [ 4167168.1047055 ]
- [ 4168575.69819104]
- [ 4169714.6615827 ]
- [12260068.0532991 ]
- [12265549.27588949]
- [12270859.44032728]
- [16547518.00764728]
- [19992013.40574167]
- [25144265.88963077]]</t>
+          <t>[[ 1999731.53312449]
+ [ 2000212.57277468]
+ [ 2000649.85222064]
+ [ 4167868.03088127]
+ [ 4169275.85979937]
+ [ 4170415.01305135]
+ [12262514.96461732]
+ [12263269.97959782]
+ [12263849.95542696]
+ [16531375.48211938]
+ [19978425.43025575]
+ [25138208.3861643 ]]</t>
         </is>
       </c>
       <c r="E611" t="inlineStr"/>
@@ -16128,18 +16127,18 @@
       </c>
       <c r="D612" t="inlineStr">
         <is>
-          <t>[[ -7309.67679895]
- [ -8188.8165585 ]
- [ -8835.83289275]
- [-19887.19433413]
- [-21149.55345224]
- [-22208.09434995]
- [-67974.33238228]
- [-69461.88005562]
- [-70851.07453685]
- [-83565.36659718]
- [-72796.32644737]
- [-61591.50254587]]</t>
+          <t>[[ -7310.07843108]
+ [ -8189.26649523]
+ [ -8836.31838002]
+ [-19890.56748853]
+ [-21153.14072082]
+ [-22211.86116221]
+ [-68011.98823354]
+ [-69522.64747458]
+ [-70935.80509626]
+ [-83642.70018868]
+ [-72844.93049544]
+ [-61610.40147731]]</t>
         </is>
       </c>
       <c r="E612" t="inlineStr"/>
@@ -16192,18 +16191,18 @@
       <c r="C614" t="inlineStr"/>
       <c r="D614" t="inlineStr">
         <is>
-          <t>[[0.21944941]
- [0.20141687]
- [0.18334489]
- [0.31719156]
- [0.25665087]
- [0.19636274]
- [0.46168011]
- [0.35087128]
- [0.24376207]
- [0.21824386]
- [0.17799538]
- [0.22190208]]</t>
+          <t>[[0.21946193]
+ [0.20142819]
+ [0.183355  ]
+ [0.31724408]
+ [0.25669211]
+ [0.1963927 ]
+ [0.46169437]
+ [0.3506408 ]
+ [0.24344024]
+ [0.21788788]
+ [0.1778636 ]
+ [0.22184689]]</t>
         </is>
       </c>
       <c r="E614" t="inlineStr"/>
@@ -16222,18 +16221,18 @@
       <c r="C615" t="inlineStr"/>
       <c r="D615" t="inlineStr">
         <is>
-          <t>[[0.03230779]
- [0.02904142]
- [0.02587352]
- [0.0894239 ]
- [0.08298875]
- [0.07676626]
- [0.64009468]
- [0.62814525]
- [0.61618569]
- [0.97815814]
- [0.99987822]
- [1.04451889]]</t>
+          <t>[[0.03230948]
+ [0.02904307]
+ [0.02587514]
+ [0.08945194]
+ [0.08301605]
+ [0.07679275]
+ [0.64066166]
+ [0.62866456]
+ [0.61665115]
+ [0.97815703]
+ [0.99987789]
+ [1.04458989]]</t>
         </is>
       </c>
       <c r="E615" t="inlineStr"/>
@@ -16252,18 +16251,18 @@
       <c r="C616" t="inlineStr"/>
       <c r="D616" t="inlineStr">
         <is>
-          <t>[[0.57193143]
- [0.51433921]
- [0.45697517]
- [0.80456492]
- [0.65141004]
- [0.49953994]
- [1.26049895]
- [1.00551537]
- [0.75146057]
- [0.7583064 ]
- [0.57865731]
- [0.75000887]]</t>
+          <t>[[0.57205687]
+ [0.51445237]
+ [0.45707609]
+ [0.80483927]
+ [0.65163407]
+ [0.499714  ]
+ [1.2607684 ]
+ [1.00497611]
+ [0.75051619]
+ [0.75697022]
+ [0.57796489]
+ [0.74978131]]</t>
         </is>
       </c>
       <c r="E616" t="inlineStr"/>
@@ -16379,7 +16378,7 @@
       </c>
       <c r="D621" t="inlineStr">
         <is>
-          <t>[0.29451329]</t>
+          <t>[0.29454102]</t>
         </is>
       </c>
       <c r="E621" t="inlineStr"/>
@@ -16402,7 +16401,7 @@
       </c>
       <c r="D622" t="inlineStr">
         <is>
-          <t>[0.29864607]</t>
+          <t>[0.29867046]</t>
         </is>
       </c>
       <c r="E622" t="inlineStr"/>
@@ -16425,7 +16424,7 @@
       </c>
       <c r="D623" t="inlineStr">
         <is>
-          <t>[0.29451329 0.29864607 0.88002193 1.04862731 1.24688795 2.68302795]</t>
+          <t>[0.29454102 0.29867046 0.88045936 1.04913746 1.24749887 2.68352952]</t>
         </is>
       </c>
       <c r="E623" t="inlineStr"/>
@@ -16444,9 +16443,9 @@
       <c r="C624" t="inlineStr"/>
       <c r="D624" t="inlineStr">
         <is>
-          <t>[[   0.70694812    0.70303831   -1.63080662    2.1150329    -0.89421271]
- [  19.20969967   43.32364347 -158.40358285  188.10805566  -91.23781595]
- [ -53.05168871  136.43698585 -267.39307494  350.77596452 -165.76818671]]</t>
+          <t>[[   0.70776131    0.69787424   -1.61624867    2.09928166   -0.88866854]
+ [  19.22879455   43.50318839 -158.92399514  188.60135437  -91.40934217]
+ [ -53.04029741  136.25574474 -266.80849791  350.10182137 -165.50877079]]</t>
         </is>
       </c>
       <c r="E624" t="inlineStr"/>
@@ -16465,9 +16464,9 @@
       <c r="C625" t="inlineStr"/>
       <c r="D625" t="inlineStr">
         <is>
-          <t>[[   0.70120813    0.65121326   -1.47011553    1.91782931   -0.80013517]
- [   7.6248314    25.71058019  -86.45550487  104.25744467  -50.13735139]
- [ -51.33561293  128.05923667 -249.34143954  328.42041866 -154.80260286]]</t>
+          <t>[[   0.70203648    0.64603648   -1.45558125    1.90219325   -0.79468496]
+ [   7.62768551   25.78432133  -86.65517935  104.44065928  -50.19748678]
+ [ -51.32324792  127.87401249 -248.75461561  327.75002118 -154.54617014]]</t>
         </is>
       </c>
       <c r="E625" t="inlineStr"/>
@@ -16486,7 +16485,7 @@
       <c r="C626" t="inlineStr"/>
       <c r="D626" t="inlineStr">
         <is>
-          <t>[[  3.19026837 -12.21388496  22.27182482 -17.36256404   5.11435581]
+          <t>[[  3.19332326 -12.23528979  22.32894201 -17.42527166   5.13829618]
  [  0.           0.           0.           0.           0.        ]
  [  0.           0.           0.           0.           0.        ]]</t>
         </is>
@@ -16511,7 +16510,7 @@
       </c>
       <c r="D627" t="inlineStr">
         <is>
-          <t>[0.29864607 1.24688795 2.74402298]</t>
+          <t>[0.29867046 1.24749887 2.74455943]</t>
         </is>
       </c>
       <c r="E627" t="inlineStr"/>
@@ -16534,7 +16533,7 @@
       </c>
       <c r="D628" t="inlineStr">
         <is>
-          <t>[0.29451329 1.04862731 2.68302795]</t>
+          <t>[0.29454102 1.04913746 2.68352952]</t>
         </is>
       </c>
       <c r="E628" t="inlineStr"/>
@@ -16557,7 +16556,7 @@
       </c>
       <c r="D629" t="inlineStr">
         <is>
-          <t>[4.98532421 0.         0.        ]</t>
+          <t>[4.98572361 0.         0.        ]</t>
         </is>
       </c>
       <c r="E629" t="inlineStr"/>
@@ -16581,18 +16580,18 @@
       <c r="D630" t="inlineStr">
         <is>
           <t>[[0.        ]
- [0.00406217]
- [0.01533034]
- [0.03315066]
- [0.07510876]
- [0.13793417]
- [0.2176602 ]
- [0.27702146]
- [0.34750231]
- [0.42659404]
- [0.5075754 ]
- [0.59494289]
- [0.68604794]]</t>
+ [0.00406238]
+ [0.01533113]
+ [0.03315237]
+ [0.07511406]
+ [0.1379465 ]
+ [0.21768232]
+ [0.27704979]
+ [0.34753041]
+ [0.42660866]
+ [0.50756121]
+ [0.59488717]
+ [0.68594654]]</t>
         </is>
       </c>
       <c r="E630" t="inlineStr"/>
@@ -16615,7 +16614,7 @@
       </c>
       <c r="D631" t="inlineStr">
         <is>
-          <t>[0.68604794]</t>
+          <t>[0.68594654]</t>
         </is>
       </c>
       <c r="E631" t="inlineStr"/>
@@ -16638,18 +16637,18 @@
       </c>
       <c r="D632" t="inlineStr">
         <is>
-          <t>[[-20751448.54263115]
- [-17767528.35398456]
- [-14782526.46984074]
- [-12723338.03505638]
- [-10662685.63739233]
- [ -8600792.85905649]
- [ -8170100.24865048]
- [ -7739182.84780633]
- [ -7308062.88511827]
- [ -7002486.04423237]
- [ -6740448.55278845]
- [ -6521904.15      ]]</t>
+          <t>[[-20750662.85560885]
+ [-17766902.65875328]
+ [-14782060.76640048]
+ [-12723214.51059115]
+ [-10662904.29190212]
+ [ -8601353.69254129]
+ [ -8170754.620634  ]
+ [ -7739791.87857196]
+ [ -7308487.38609732]
+ [ -7002666.10472725]
+ [ -6740487.3277682 ]
+ [ -6521904.14999999]]</t>
         </is>
       </c>
       <c r="E632" t="inlineStr"/>
@@ -16672,18 +16671,18 @@
       </c>
       <c r="D633" t="inlineStr">
         <is>
-          <t>[[2912478.268864  ]
- [2913369.13923878]
- [2914179.77362316]
- [2914482.49961713]
- [2915731.13078484]
- [2916743.86879116]
- [2913212.08799947]
- [2913444.35795184]
- [2913624.50904512]
- [2913259.5368297 ]
- [2913163.72271362]
- [2913009.43820939]]</t>
+          <t>[[2912478.26798407]
+ [2913369.13665294]
+ [2914179.76941957]
+ [2914482.29734036]
+ [2915730.92707288]
+ [2916743.66335226]
+ [2913211.94612077]
+ [2913444.50457518]
+ [2913624.92940318]
+ [2913260.10958063]
+ [2913163.80086305]
+ [2913009.10687143]]</t>
         </is>
       </c>
       <c r="E633" t="inlineStr"/>
@@ -16706,18 +16705,18 @@
       </c>
       <c r="D634" t="inlineStr">
         <is>
-          <t>[[-3354.88906714]
- [-3354.38426215]
- [-3353.78687856]
- [-3353.24154284]
- [-3351.57177092]
- [-3349.63471314]
- [-3353.32510342]
- [-3352.45839319]
- [-3351.53253329]
- [-3351.72102237]
- [-3351.03753001]
- [-3350.00280296]]</t>
+          <t>[[-3354.88907642]
+ [-3354.38429001]
+ [-3353.78692506]
+ [-3353.24172797]
+ [-3351.57199213]
+ [-3349.63497031]
+ [-3353.32536864]
+ [-3352.45851222]
+ [-3351.53284386]
+ [-3351.72157568]
+ [-3351.04050411]
+ [-3350.00799143]]</t>
         </is>
       </c>
       <c r="E634" t="inlineStr"/>
@@ -16740,18 +16739,18 @@
       </c>
       <c r="D635" t="inlineStr">
         <is>
-          <t>[[-221062.28248198]
- [-261446.43428093]
- [-301761.48087937]
- [-359165.99867783]
- [-416277.35617294]
- [-473164.52620007]
- [-507153.3577153 ]
- [-540841.12349155]
- [-574239.66372476]
- [-605092.52282903]
- [-635412.0844143 ]
- [-664796.3435582 ]]</t>
+          <t>[[-221054.32546634]
+ [-261438.48011234]
+ [-301753.52998653]
+ [-359158.03237668]
+ [-416269.32025962]
+ [-473156.3551455 ]
+ [-507145.09032994]
+ [-540832.92602932]
+ [-574232.03783478]
+ [-605086.3029685 ]
+ [-635408.47021735]
+ [-664796.34270921]]</t>
         </is>
       </c>
       <c r="E635" t="inlineStr"/>
@@ -16774,17 +16773,17 @@
       </c>
       <c r="D636" t="inlineStr">
         <is>
-          <t>[[ 3.90088240e+08]
- [ 3.54702906e+08]
- [ 3.19234780e+08]
- [ 2.68399393e+08]
- [ 2.17383388e+08]
- [ 1.66316638e+08]
- [ 1.35675245e+08]
- [ 1.04969575e+08]
- [ 7.42276348e+07]
- [ 4.55146331e+07]
- [ 1.67816837e+07]
+          <t>[[ 3.90087804e+08]
+ [ 3.54702468e+08]
+ [ 3.19234336e+08]
+ [ 2.68398916e+08]
+ [ 2.17382829e+08]
+ [ 1.66315957e+08]
+ [ 1.35674477e+08]
+ [ 1.04968763e+08]
+ [ 7.42268790e+07]
+ [ 4.55140535e+07]
+ [ 1.67813793e+07]
  [-1.19535913e+07]]</t>
         </is>
       </c>
@@ -16808,18 +16807,18 @@
       </c>
       <c r="D637" t="inlineStr">
         <is>
-          <t>[[6490178.88535989]
- [6490103.00715864]
- [6490027.09379704]
- [6490358.54877721]
- [6490249.4053663 ]
- [6490140.18803541]
- [6490916.87637796]
- [6490850.08182318]
- [6490783.21071113]
- [6491091.77895346]
- [6491270.56210875]
- [6491533.50959582]]</t>
+          <t>[[6490178.89382945]
+ [6490103.01561081]
+ [6490027.10222982]
+ [6490358.65571206]
+ [6490249.51210252]
+ [6490140.29455996]
+ [6490917.2753343 ]
+ [6490850.07095679]
+ [6490782.81121398]
+ [6491090.66507733]
+ [6491269.69838567]
+ [6491533.17907288]]</t>
         </is>
       </c>
       <c r="E637" t="inlineStr"/>
@@ -16844,7 +16843,7 @@
         <is>
           <t>[[ 2.91197623e+06]
  [-3.35507584e+03]
- [-2.37339169e+07]]</t>
+ [-2.37329713e+07]]</t>
         </is>
       </c>
       <c r="E638" t="inlineStr"/>
@@ -16867,8 +16866,8 @@
       </c>
       <c r="D639" t="inlineStr">
         <is>
-          <t>[[-1.80597536e+05]
- [ 4.25335139e+08]
+          <t>[[-1.80589578e+05]
+ [ 4.25334705e+08]
  [ 6.48957511e+06]]</t>
         </is>
       </c>
@@ -16892,7 +16891,7 @@
       </c>
       <c r="D640" t="inlineStr">
         <is>
-          <t>[2718189.82655094]</t>
+          <t>[2718088.30002442]</t>
         </is>
       </c>
       <c r="E640" t="inlineStr"/>
@@ -16915,7 +16914,7 @@
       </c>
       <c r="D641" t="inlineStr">
         <is>
-          <t>[-2.33387802e+00 -3.01320829e-02  8.94653817e+01]</t>
+          <t>[-2.33396520e+00 -3.01332084e-02  8.94684790e+01]</t>
         </is>
       </c>
       <c r="E641" t="inlineStr"/>
@@ -16938,7 +16937,7 @@
       </c>
       <c r="D642" t="inlineStr">
         <is>
-          <t>[3.21881011e+10 3.20436769e+10 2.95209074e+08 2.02613158e+02
+          <t>[3.21885144e+10 3.20440902e+10 2.95211177e+08 2.02613158e+02
  1.08611945e+07 1.44041114e+05]</t>
         </is>
       </c>
@@ -17540,7 +17539,7 @@
       </c>
       <c r="D658" t="inlineStr">
         <is>
-          <t>direct_drive</t>
+          <t>geared</t>
         </is>
       </c>
       <c r="E658" t="inlineStr">
@@ -18447,7 +18446,7 @@
       </c>
       <c r="D695" t="inlineStr">
         <is>
-          <t>[2.9]</t>
+          <t>[2.55736479]</t>
         </is>
       </c>
       <c r="E695" t="inlineStr"/>
@@ -19606,8 +19605,8 @@
       </c>
       <c r="D738" t="inlineStr">
         <is>
-          <t>[[0.02781426 0.18281686 0.199998   0.13347932 0.1593549  0.10892979
-  0.13761373]]</t>
+          <t>[[0.02781126 0.1828135  0.19999354 0.13347579 0.15935257 0.10892738
+  0.13761421]]</t>
         </is>
       </c>
       <c r="E738" t="inlineStr">
@@ -19823,7 +19822,7 @@
       </c>
       <c r="D746" t="inlineStr">
         <is>
-          <t>[10.        10.        10.         9.9903992  6.       ]</t>
+          <t>[10. 10. 10. 10.  6.]</t>
         </is>
       </c>
       <c r="E746" t="inlineStr">
@@ -19873,7 +19872,7 @@
       </c>
       <c r="D748" t="inlineStr">
         <is>
-          <t>[[0.12082712 0.07245489 0.01985423 0.01141664 0.01378189]]</t>
+          <t>[[0.12082347 0.07244802 0.01984552 0.01141306 0.0137838 ]]</t>
         </is>
       </c>
       <c r="E748" t="inlineStr">
